--- a/files/Matières/LLCE/T1/portfolio/Building and Expressing Yourself and(or) Travels/Link - Building and Expressing Yourself and(or) Travels.xlsx
+++ b/files/Matières/LLCE/T1/portfolio/Building and Expressing Yourself and(or) Travels/Link - Building and Expressing Yourself and(or) Travels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry PC\Documents\001 Github prog Sharing\Backup-of-matiere\files\Matières\LLCE\T1\portfolio\Building and Expressing Yourself and(or) Travels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B200BB0-D4F1-4D76-8B46-AFB9868E6AE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12F36A3-652D-43BD-86CD-1106D3D4CC96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Progression</t>
   </si>
@@ -118,11 +119,13 @@
     <t>still I rise, Maya Angelou, (opposition to loss of everything) goes in opposition to loss of identity</t>
   </si>
   <si>
-    <t>Le boulversment est-il un moyen de s'auto construire?, La construction de soi est-elle toujours liée à un boulversement?, Le boulversment engendre-t-il constamment un voyage?
-To what extent does kaos inevitably lead to rebuilding oneself?</t>
+    <t>Index</t>
   </si>
   <si>
-    <t>Index</t>
+    <t>To what extent does kaos inevitably lead to rebuilding oneself?</t>
+  </si>
+  <si>
+    <t>Vielles problématiques: Le boulversment est-il un moyen de s'auto construire?, La construction de soi est-elle toujours liée à un boulversement?, Le boulversment engendre-t-il constamment un voyage?</t>
   </si>
 </sst>
 </file>
@@ -349,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,31 +441,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,6 +491,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X751"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -800,51 +809,43 @@
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+    <row r="1" spans="1:24" s="51" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="21"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="51" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:24" s="20" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K2" s="22">
         <v>0</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="31"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:24" s="7" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="26"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="33"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="3">
         <v>0</v>
       </c>
@@ -863,10 +864,10 @@
       <c r="K3" s="21">
         <v>1</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="32"/>
+      <c r="M3" s="34"/>
       <c r="N3" s="12" t="s">
         <v>21</v>
       </c>
@@ -883,14 +884,14 @@
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="3">
         <v>50</v>
       </c>
@@ -909,17 +910,17 @@
       <c r="K4" s="21">
         <v>2</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="38" t="s">
+      <c r="M4" s="35"/>
+      <c r="N4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="33"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="35"/>
       <c r="S4" s="12"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -951,10 +952,10 @@
       <c r="K5" s="24">
         <v>3</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="35"/>
+      <c r="M5" s="50"/>
       <c r="N5" s="13"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -969,25 +970,25 @@
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="43" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="44"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="23"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -1007,42 +1008,42 @@
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
     </row>
-    <row r="7" spans="1:24" s="49" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="47" t="s">
-        <v>27</v>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="44" t="s">
+        <v>28</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
     </row>
     <row r="8" spans="1:24" s="4" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="14" t="s">
         <v>13</v>
       </c>
@@ -1071,12 +1072,12 @@
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -1104,12 +1105,12 @@
       <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -1137,12 +1138,12 @@
       <c r="A11" s="27">
         <v>3</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -1170,12 +1171,12 @@
       <c r="A12" s="3">
         <v>4</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -1203,12 +1204,12 @@
       <c r="A13" s="27">
         <v>5</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -1233,12 +1234,12 @@
       <c r="A14" s="29">
         <v>6</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -1262,12 +1263,12 @@
       <c r="A15" s="28">
         <v>7</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -1292,12 +1293,12 @@
       <c r="A16" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18">
         <f>G3</f>
@@ -1325,12 +1326,12 @@
       <c r="A17" s="27">
         <v>9</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18">
         <f>G3</f>
@@ -7343,7 +7344,16 @@
       <c r="S751" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="N1:XFD1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="N4:R4"/>
@@ -7360,14 +7370,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D7:XFD7"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6 D20:D21 D24:D1048576">
     <cfRule type="dataBar" priority="7">

--- a/files/Matières/LLCE/T1/portfolio/Building and Expressing Yourself and(or) Travels/Link - Building and Expressing Yourself and(or) Travels.xlsx
+++ b/files/Matières/LLCE/T1/portfolio/Building and Expressing Yourself and(or) Travels/Link - Building and Expressing Yourself and(or) Travels.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry PC\Documents\001 Github prog Sharing\Backup-of-matiere\files\Matières\LLCE\T1\portfolio\Building and Expressing Yourself and(or) Travels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12F36A3-652D-43BD-86CD-1106D3D4CC96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F2C36B-10DA-4C2C-8260-A5EB33523F25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38205" yWindow="-195" windowWidth="29190" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Progression</t>
   </si>
@@ -127,14 +126,117 @@
   <si>
     <t>Vielles problématiques: Le boulversment est-il un moyen de s'auto construire?, La construction de soi est-elle toujours liée à un boulversement?, Le boulversment engendre-t-il constamment un voyage?</t>
   </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Type de doc</t>
+  </si>
+  <si>
+    <t>DL1</t>
+  </si>
+  <si>
+    <t>DN1</t>
+  </si>
+  <si>
+    <t>DVC1</t>
+  </si>
+  <si>
+    <t>DV1</t>
+  </si>
+  <si>
+    <t>DN2</t>
+  </si>
+  <si>
+    <t>DL2</t>
+  </si>
+  <si>
+    <t>DN3</t>
+  </si>
+  <si>
+    <t>To what extent. Does chaos inevitably lead to rebuilding oneself?</t>
+  </si>
+  <si>
+    <t>Intro:</t>
+  </si>
+  <si>
+    <t>Evolution and humans have survived due to their capacities to adapt and hence rebuild yourself.</t>
+  </si>
+  <si>
+    <t>Globally, yes, it depends on the degree of the chaos and therefore the necessity to adapt.</t>
+  </si>
+  <si>
+    <t>Humans generally do not like change but depending on the circumstances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I One can rebuild. Oneself in an unexpected way </t>
+  </si>
+  <si>
+    <t>A Joker</t>
+  </si>
+  <si>
+    <t>1 J was pivoting, trying to keep a balance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 J’s mother was delusional </t>
+  </si>
+  <si>
+    <t>3 J zas living in a bubble, finding out the truth about his ;other exploded his bubble in which he was surviving.</t>
+  </si>
+  <si>
+    <t>4 chaos breeds chaos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 chaos </t>
+  </si>
+  <si>
+    <t>6 disruption, instability</t>
+  </si>
+  <si>
+    <t>II chaos forced oneself to be somebody they are not, and therefore create an exterior appearance to reflect that.</t>
+  </si>
+  <si>
+    <t>A)     create and exterior façade to pretend to be somebody they are not (A mask/take on a persona that not theirs) (HT,RP) (“wear your mask long enough and you won’t remember who you really are”)</t>
+  </si>
+  <si>
+    <t>B)       </t>
+  </si>
+  <si>
+    <t>III Organised chaos has forced people to transpose their identity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A L SK </t>
+  </si>
+  <si>
+    <t>B R Sparrow</t>
+  </si>
+  <si>
+    <t>C TTAmerica EI : sometimes it is due to nature.</t>
+  </si>
+  <si>
+    <t>D HT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -352,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,18 +547,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,20 +615,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X751"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="I28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -800,7 +917,8 @@
     <col min="5" max="5" width="9.86328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.3984375" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="9" style="25"/>
     <col min="12" max="13" width="9" style="1"/>
     <col min="14" max="14" width="63.59765625" style="12" customWidth="1"/>
@@ -809,7 +927,7 @@
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="51" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:24" s="33" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -823,29 +941,32 @@
       <c r="K1" s="21"/>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="20" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I2" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="K2" s="22">
         <v>0</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="48"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:24" s="7" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="26"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="35"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="3">
         <v>0</v>
       </c>
@@ -855,19 +976,15 @@
       <c r="H3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="I3"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="21">
         <v>1</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="34"/>
+      <c r="M3" s="36"/>
       <c r="N3" s="12" t="s">
         <v>21</v>
       </c>
@@ -884,14 +1001,14 @@
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="3">
         <v>50</v>
       </c>
@@ -901,26 +1018,22 @@
       <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="I4"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="21">
         <v>2</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="33" t="s">
+      <c r="M4" s="37"/>
+      <c r="N4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="35"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="37"/>
       <c r="S4" s="12"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -943,19 +1056,15 @@
       <c r="H5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="7">
-        <v>2</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="I5"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="24">
         <v>3</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="50"/>
+      <c r="M5" s="39"/>
       <c r="N5" s="13"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -972,23 +1081,23 @@
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="40" t="s">
+      <c r="H6" s="49"/>
+      <c r="I6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="48"/>
       <c r="K6" s="23"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -1008,42 +1117,42 @@
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:24" s="53" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="44" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
     </row>
     <row r="8" spans="1:24" s="4" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="14" t="s">
         <v>13</v>
       </c>
@@ -1072,16 +1181,20 @@
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="G9" s="18">
+        <v>2</v>
+      </c>
       <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
       <c r="J9" s="18"/>
       <c r="K9" s="21">
         <f>K2</f>
@@ -1105,16 +1218,20 @@
       <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="G10" s="18">
+        <v>2</v>
+      </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="21">
         <f>K4</f>
@@ -1138,16 +1255,20 @@
       <c r="A11" s="27">
         <v>3</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="18">
+        <v>2</v>
+      </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
       <c r="J11" s="18"/>
       <c r="K11" s="21">
         <f>K2</f>
@@ -1171,16 +1292,20 @@
       <c r="A12" s="3">
         <v>4</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="18">
+        <v>2</v>
+      </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
       <c r="J12" s="18"/>
       <c r="K12" s="21">
         <f>K5</f>
@@ -1204,16 +1329,20 @@
       <c r="A13" s="27">
         <v>5</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="18">
+        <v>2</v>
+      </c>
       <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
       <c r="J13" s="18"/>
       <c r="K13" s="21"/>
       <c r="L13" s="18"/>
@@ -1234,16 +1363,20 @@
       <c r="A14" s="29">
         <v>6</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="G14" s="18">
+        <v>2</v>
+      </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
       <c r="J14" s="18"/>
       <c r="K14" s="21"/>
       <c r="M14" s="18"/>
@@ -1263,16 +1396,20 @@
       <c r="A15" s="28">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="G15" s="18">
+        <v>2</v>
+      </c>
       <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
       <c r="J15" s="18"/>
       <c r="K15" s="21"/>
       <c r="L15" s="18"/>
@@ -1293,19 +1430,19 @@
       <c r="A16" s="3">
         <v>8</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18">
         <f>G3</f>
         <v>0</v>
       </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="I16"/>
       <c r="J16" s="18"/>
       <c r="K16" s="21"/>
       <c r="L16" s="18"/>
@@ -1326,19 +1463,19 @@
       <c r="A17" s="27">
         <v>9</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18">
         <f>G3</f>
         <v>0</v>
       </c>
       <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="I17"/>
       <c r="J17" s="18"/>
       <c r="K17" s="21"/>
       <c r="L17" s="18"/>
@@ -1356,6 +1493,7 @@
       <c r="X17" s="18"/>
     </row>
     <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="12"/>
@@ -1371,6 +1509,7 @@
       <c r="X18" s="18"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I19"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="12"/>
@@ -1394,7 +1533,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="I20"/>
       <c r="J20" s="18"/>
       <c r="K20" s="21"/>
       <c r="L20" s="18"/>
@@ -1413,18 +1552,24 @@
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="H21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21"/>
       <c r="J21" s="18"/>
       <c r="K21" s="21"/>
       <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="M21" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="N21" s="12"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
@@ -1444,7 +1589,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="I22"/>
       <c r="J22" s="18"/>
       <c r="K22" s="21"/>
       <c r="L22" s="18"/>
@@ -1468,7 +1613,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
+      <c r="I23"/>
       <c r="J23" s="18"/>
       <c r="K23" s="21"/>
       <c r="L23" s="18"/>
@@ -1494,7 +1639,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="I24"/>
       <c r="J24" s="18"/>
       <c r="K24" s="21"/>
       <c r="L24" s="18"/>
@@ -1511,16 +1656,18 @@
       <c r="W24" s="18"/>
       <c r="X24" s="18"/>
     </row>
-    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
-      <c r="B25" s="18"/>
+      <c r="B25" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="I25"/>
       <c r="J25" s="18"/>
       <c r="K25" s="21"/>
       <c r="L25" s="18"/>
@@ -1539,38 +1686,55 @@
     </row>
     <row r="26" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
+      <c r="I26"/>
       <c r="K26" s="21"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="12"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
+      <c r="B27" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27"/>
       <c r="K27" s="21"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="12"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
+      <c r="B28" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28"/>
       <c r="K28" s="21"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="12"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
+      <c r="B29" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29"/>
       <c r="K29" s="21"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
       <c r="N29" s="12"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:24" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
+      <c r="B30" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30"/>
       <c r="K30" s="21"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -1579,6 +1743,7 @@
     </row>
     <row r="31" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
+      <c r="I31"/>
       <c r="K31" s="21"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
@@ -1587,134 +1752,203 @@
     </row>
     <row r="32" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
+      <c r="I32"/>
       <c r="K32" s="21"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="12"/>
+      <c r="O32" s="31"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
+      <c r="B33" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33"/>
       <c r="K33" s="21"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
-      <c r="N33" s="12"/>
+      <c r="N33" s="32" t="s">
+        <v>54</v>
+      </c>
       <c r="S33" s="12"/>
-    </row>
-    <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="U33" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
+      <c r="B34" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34"/>
       <c r="K34" s="21"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
-      <c r="N34" s="12"/>
+      <c r="N34" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="O34" s="31"/>
       <c r="S34" s="12"/>
-    </row>
-    <row r="35" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="U34" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
+      <c r="B35" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35"/>
       <c r="K35" s="21"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
-      <c r="N35" s="12"/>
+      <c r="N35" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="31"/>
       <c r="S35" s="12"/>
-    </row>
-    <row r="36" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="U35" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
+      <c r="B36" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36"/>
       <c r="K36" s="21"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
       <c r="N36" s="12"/>
+      <c r="O36" s="31"/>
       <c r="S36" s="12"/>
-    </row>
-    <row r="37" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="U36" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
+      <c r="B37" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37"/>
       <c r="K37" s="21"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
       <c r="N37" s="12"/>
       <c r="S37" s="12"/>
-    </row>
-    <row r="38" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="U37" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
+      <c r="B38" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38"/>
       <c r="K38" s="21"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
       <c r="N38" s="12"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
+      <c r="B39" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39"/>
       <c r="K39" s="21"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="N39" s="12"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
+      <c r="B40" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40"/>
       <c r="K40" s="21"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
       <c r="N40" s="12"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
+      <c r="B41" s="54">
+        <v>7</v>
+      </c>
+      <c r="I41"/>
       <c r="K41" s="21"/>
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
       <c r="N41" s="12"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
+      <c r="I42"/>
       <c r="K42" s="21"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
       <c r="N42" s="12"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
+      <c r="I43"/>
       <c r="K43" s="21"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
       <c r="N43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
+      <c r="I44"/>
       <c r="K44" s="21"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
+      <c r="I45"/>
       <c r="K45" s="21"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
       <c r="N45" s="12"/>
       <c r="S45" s="12"/>
     </row>
-    <row r="46" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
+      <c r="I46"/>
       <c r="K46" s="21"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
       <c r="N46" s="12"/>
       <c r="S46" s="12"/>
     </row>
-    <row r="47" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
+      <c r="I47"/>
       <c r="K47" s="21"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
       <c r="N47" s="12"/>
       <c r="S47" s="12"/>
     </row>
-    <row r="48" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
+      <c r="I48"/>
       <c r="K48" s="21"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
@@ -1723,6 +1957,7 @@
     </row>
     <row r="49" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
+      <c r="I49"/>
       <c r="K49" s="21"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
@@ -1731,6 +1966,7 @@
     </row>
     <row r="50" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
+      <c r="I50"/>
       <c r="K50" s="21"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
@@ -1739,6 +1975,7 @@
     </row>
     <row r="51" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
+      <c r="I51"/>
       <c r="K51" s="21"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
@@ -1747,6 +1984,7 @@
     </row>
     <row r="52" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
+      <c r="I52"/>
       <c r="K52" s="21"/>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
@@ -1755,6 +1993,7 @@
     </row>
     <row r="53" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
+      <c r="I53"/>
       <c r="K53" s="21"/>
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
@@ -1763,6 +2002,7 @@
     </row>
     <row r="54" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
+      <c r="I54"/>
       <c r="K54" s="21"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
@@ -1771,6 +2011,7 @@
     </row>
     <row r="55" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
+      <c r="I55"/>
       <c r="K55" s="21"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
@@ -1779,6 +2020,7 @@
     </row>
     <row r="56" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
+      <c r="I56"/>
       <c r="K56" s="21"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
@@ -1787,6 +2029,7 @@
     </row>
     <row r="57" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
+      <c r="I57"/>
       <c r="K57" s="21"/>
       <c r="L57" s="18"/>
       <c r="M57" s="18"/>
@@ -1795,6 +2038,7 @@
     </row>
     <row r="58" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
+      <c r="I58"/>
       <c r="K58" s="21"/>
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
@@ -1803,6 +2047,7 @@
     </row>
     <row r="59" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
+      <c r="I59"/>
       <c r="K59" s="21"/>
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
@@ -1811,6 +2056,7 @@
     </row>
     <row r="60" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
+      <c r="I60"/>
       <c r="K60" s="21"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
@@ -1819,6 +2065,7 @@
     </row>
     <row r="61" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
+      <c r="I61"/>
       <c r="K61" s="21"/>
       <c r="L61" s="18"/>
       <c r="M61" s="18"/>
@@ -1827,6 +2074,7 @@
     </row>
     <row r="62" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
+      <c r="I62"/>
       <c r="K62" s="21"/>
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
@@ -1835,6 +2083,7 @@
     </row>
     <row r="63" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
+      <c r="I63"/>
       <c r="K63" s="21"/>
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
@@ -1843,6 +2092,7 @@
     </row>
     <row r="64" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
+      <c r="I64"/>
       <c r="K64" s="21"/>
       <c r="L64" s="18"/>
       <c r="M64" s="18"/>
@@ -1851,6 +2101,7 @@
     </row>
     <row r="65" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
+      <c r="I65"/>
       <c r="K65" s="21"/>
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
@@ -1859,6 +2110,7 @@
     </row>
     <row r="66" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
+      <c r="I66"/>
       <c r="K66" s="21"/>
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
@@ -1867,6 +2119,7 @@
     </row>
     <row r="67" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
+      <c r="I67"/>
       <c r="K67" s="21"/>
       <c r="L67" s="18"/>
       <c r="M67" s="18"/>
@@ -1875,6 +2128,7 @@
     </row>
     <row r="68" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
+      <c r="I68"/>
       <c r="K68" s="21"/>
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
@@ -1883,6 +2137,7 @@
     </row>
     <row r="69" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
+      <c r="I69"/>
       <c r="K69" s="21"/>
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
@@ -1891,6 +2146,7 @@
     </row>
     <row r="70" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
+      <c r="I70"/>
       <c r="K70" s="21"/>
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
@@ -1899,6 +2155,7 @@
     </row>
     <row r="71" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
+      <c r="I71"/>
       <c r="K71" s="21"/>
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
@@ -1907,6 +2164,7 @@
     </row>
     <row r="72" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
+      <c r="I72"/>
       <c r="K72" s="21"/>
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
@@ -1915,6 +2173,7 @@
     </row>
     <row r="73" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
+      <c r="I73"/>
       <c r="K73" s="21"/>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
@@ -1923,6 +2182,7 @@
     </row>
     <row r="74" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
+      <c r="I74"/>
       <c r="K74" s="21"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
@@ -1931,6 +2191,7 @@
     </row>
     <row r="75" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
+      <c r="I75"/>
       <c r="K75" s="21"/>
       <c r="L75" s="18"/>
       <c r="M75" s="18"/>
@@ -1939,6 +2200,7 @@
     </row>
     <row r="76" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
+      <c r="I76"/>
       <c r="K76" s="21"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
@@ -1947,6 +2209,7 @@
     </row>
     <row r="77" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
+      <c r="I77"/>
       <c r="K77" s="21"/>
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
@@ -1955,6 +2218,7 @@
     </row>
     <row r="78" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
+      <c r="I78"/>
       <c r="K78" s="21"/>
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
@@ -1963,6 +2227,7 @@
     </row>
     <row r="79" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
+      <c r="I79"/>
       <c r="K79" s="21"/>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
@@ -1971,6 +2236,7 @@
     </row>
     <row r="80" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
+      <c r="I80"/>
       <c r="K80" s="21"/>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
@@ -1979,6 +2245,7 @@
     </row>
     <row r="81" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
+      <c r="I81"/>
       <c r="K81" s="21"/>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
@@ -1987,6 +2254,7 @@
     </row>
     <row r="82" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
+      <c r="I82"/>
       <c r="K82" s="21"/>
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
@@ -1995,6 +2263,7 @@
     </row>
     <row r="83" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
+      <c r="I83"/>
       <c r="K83" s="21"/>
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
@@ -2003,6 +2272,7 @@
     </row>
     <row r="84" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
+      <c r="I84"/>
       <c r="K84" s="21"/>
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
@@ -2011,6 +2281,7 @@
     </row>
     <row r="85" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
+      <c r="I85"/>
       <c r="K85" s="21"/>
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
@@ -2019,6 +2290,7 @@
     </row>
     <row r="86" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
+      <c r="I86"/>
       <c r="K86" s="21"/>
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
@@ -2027,6 +2299,7 @@
     </row>
     <row r="87" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
+      <c r="I87"/>
       <c r="K87" s="21"/>
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
@@ -2035,6 +2308,7 @@
     </row>
     <row r="88" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
+      <c r="I88"/>
       <c r="K88" s="21"/>
       <c r="L88" s="18"/>
       <c r="M88" s="18"/>
@@ -2043,6 +2317,7 @@
     </row>
     <row r="89" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
+      <c r="I89"/>
       <c r="K89" s="21"/>
       <c r="L89" s="18"/>
       <c r="M89" s="18"/>
@@ -2051,6 +2326,7 @@
     </row>
     <row r="90" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
+      <c r="I90"/>
       <c r="K90" s="21"/>
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
@@ -2059,6 +2335,7 @@
     </row>
     <row r="91" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
+      <c r="I91"/>
       <c r="K91" s="21"/>
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
@@ -2067,6 +2344,7 @@
     </row>
     <row r="92" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
+      <c r="I92"/>
       <c r="K92" s="21"/>
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
@@ -2075,6 +2353,7 @@
     </row>
     <row r="93" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
+      <c r="I93"/>
       <c r="K93" s="21"/>
       <c r="L93" s="18"/>
       <c r="M93" s="18"/>
@@ -2083,6 +2362,7 @@
     </row>
     <row r="94" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
+      <c r="I94"/>
       <c r="K94" s="21"/>
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
@@ -2091,6 +2371,7 @@
     </row>
     <row r="95" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
+      <c r="I95"/>
       <c r="K95" s="21"/>
       <c r="L95" s="18"/>
       <c r="M95" s="18"/>
@@ -2099,6 +2380,7 @@
     </row>
     <row r="96" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
+      <c r="I96"/>
       <c r="K96" s="21"/>
       <c r="L96" s="18"/>
       <c r="M96" s="18"/>
@@ -2107,6 +2389,7 @@
     </row>
     <row r="97" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
+      <c r="I97"/>
       <c r="K97" s="21"/>
       <c r="L97" s="18"/>
       <c r="M97" s="18"/>
@@ -2115,6 +2398,7 @@
     </row>
     <row r="98" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
+      <c r="I98"/>
       <c r="K98" s="21"/>
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
@@ -2123,6 +2407,7 @@
     </row>
     <row r="99" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
+      <c r="I99"/>
       <c r="K99" s="21"/>
       <c r="L99" s="18"/>
       <c r="M99" s="18"/>
@@ -2131,6 +2416,7 @@
     </row>
     <row r="100" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
+      <c r="I100"/>
       <c r="K100" s="21"/>
       <c r="L100" s="18"/>
       <c r="M100" s="18"/>
@@ -2139,6 +2425,7 @@
     </row>
     <row r="101" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="3"/>
+      <c r="I101"/>
       <c r="K101" s="21"/>
       <c r="L101" s="18"/>
       <c r="M101" s="18"/>
@@ -2147,6 +2434,7 @@
     </row>
     <row r="102" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="3"/>
+      <c r="I102"/>
       <c r="K102" s="21"/>
       <c r="L102" s="18"/>
       <c r="M102" s="18"/>
@@ -2155,6 +2443,7 @@
     </row>
     <row r="103" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="3"/>
+      <c r="I103"/>
       <c r="K103" s="21"/>
       <c r="L103" s="18"/>
       <c r="M103" s="18"/>
@@ -2163,6 +2452,7 @@
     </row>
     <row r="104" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="3"/>
+      <c r="I104"/>
       <c r="K104" s="21"/>
       <c r="L104" s="18"/>
       <c r="M104" s="18"/>
@@ -2171,6 +2461,7 @@
     </row>
     <row r="105" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="3"/>
+      <c r="I105"/>
       <c r="K105" s="21"/>
       <c r="L105" s="18"/>
       <c r="M105" s="18"/>
@@ -2179,6 +2470,7 @@
     </row>
     <row r="106" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3"/>
+      <c r="I106"/>
       <c r="K106" s="21"/>
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
@@ -2187,6 +2479,7 @@
     </row>
     <row r="107" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3"/>
+      <c r="I107"/>
       <c r="K107" s="21"/>
       <c r="L107" s="18"/>
       <c r="M107" s="18"/>
@@ -2195,6 +2488,7 @@
     </row>
     <row r="108" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3"/>
+      <c r="I108"/>
       <c r="K108" s="21"/>
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
@@ -2203,6 +2497,7 @@
     </row>
     <row r="109" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3"/>
+      <c r="I109"/>
       <c r="K109" s="21"/>
       <c r="L109" s="18"/>
       <c r="M109" s="18"/>
@@ -2211,6 +2506,7 @@
     </row>
     <row r="110" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3"/>
+      <c r="I110"/>
       <c r="K110" s="21"/>
       <c r="L110" s="18"/>
       <c r="M110" s="18"/>
@@ -2219,6 +2515,7 @@
     </row>
     <row r="111" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3"/>
+      <c r="I111"/>
       <c r="K111" s="21"/>
       <c r="L111" s="18"/>
       <c r="M111" s="18"/>
@@ -2227,6 +2524,7 @@
     </row>
     <row r="112" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3"/>
+      <c r="I112"/>
       <c r="K112" s="21"/>
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
@@ -2235,6 +2533,7 @@
     </row>
     <row r="113" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3"/>
+      <c r="I113"/>
       <c r="K113" s="21"/>
       <c r="L113" s="18"/>
       <c r="M113" s="18"/>
@@ -2243,6 +2542,7 @@
     </row>
     <row r="114" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3"/>
+      <c r="I114"/>
       <c r="K114" s="21"/>
       <c r="L114" s="18"/>
       <c r="M114" s="18"/>
@@ -2251,6 +2551,7 @@
     </row>
     <row r="115" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3"/>
+      <c r="I115"/>
       <c r="K115" s="21"/>
       <c r="L115" s="18"/>
       <c r="M115" s="18"/>
@@ -2259,6 +2560,7 @@
     </row>
     <row r="116" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A116" s="3"/>
+      <c r="I116"/>
       <c r="K116" s="21"/>
       <c r="L116" s="18"/>
       <c r="M116" s="18"/>
@@ -2267,6 +2569,7 @@
     </row>
     <row r="117" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="3"/>
+      <c r="I117"/>
       <c r="K117" s="21"/>
       <c r="L117" s="18"/>
       <c r="M117" s="18"/>
@@ -2275,6 +2578,7 @@
     </row>
     <row r="118" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A118" s="3"/>
+      <c r="I118"/>
       <c r="K118" s="21"/>
       <c r="L118" s="18"/>
       <c r="M118" s="18"/>
@@ -2283,6 +2587,7 @@
     </row>
     <row r="119" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="3"/>
+      <c r="I119"/>
       <c r="K119" s="21"/>
       <c r="L119" s="18"/>
       <c r="M119" s="18"/>
@@ -2291,6 +2596,7 @@
     </row>
     <row r="120" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="3"/>
+      <c r="I120"/>
       <c r="K120" s="21"/>
       <c r="L120" s="18"/>
       <c r="M120" s="18"/>
@@ -2299,6 +2605,7 @@
     </row>
     <row r="121" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="3"/>
+      <c r="I121"/>
       <c r="K121" s="21"/>
       <c r="L121" s="18"/>
       <c r="M121" s="18"/>
@@ -2307,6 +2614,7 @@
     </row>
     <row r="122" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3"/>
+      <c r="I122"/>
       <c r="K122" s="21"/>
       <c r="L122" s="18"/>
       <c r="M122" s="18"/>
@@ -2315,6 +2623,7 @@
     </row>
     <row r="123" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3"/>
+      <c r="I123"/>
       <c r="K123" s="21"/>
       <c r="L123" s="18"/>
       <c r="M123" s="18"/>
@@ -2323,6 +2632,7 @@
     </row>
     <row r="124" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3"/>
+      <c r="I124"/>
       <c r="K124" s="21"/>
       <c r="L124" s="18"/>
       <c r="M124" s="18"/>
@@ -2331,6 +2641,7 @@
     </row>
     <row r="125" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3"/>
+      <c r="I125"/>
       <c r="K125" s="21"/>
       <c r="L125" s="18"/>
       <c r="M125" s="18"/>
@@ -2339,6 +2650,7 @@
     </row>
     <row r="126" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3"/>
+      <c r="I126"/>
       <c r="K126" s="21"/>
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
@@ -2347,6 +2659,7 @@
     </row>
     <row r="127" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3"/>
+      <c r="I127"/>
       <c r="K127" s="21"/>
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
@@ -2355,6 +2668,7 @@
     </row>
     <row r="128" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3"/>
+      <c r="I128"/>
       <c r="K128" s="21"/>
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
@@ -2363,6 +2677,7 @@
     </row>
     <row r="129" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3"/>
+      <c r="I129"/>
       <c r="K129" s="21"/>
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
@@ -2371,6 +2686,7 @@
     </row>
     <row r="130" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3"/>
+      <c r="I130"/>
       <c r="K130" s="21"/>
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
@@ -2379,6 +2695,7 @@
     </row>
     <row r="131" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3"/>
+      <c r="I131"/>
       <c r="K131" s="21"/>
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
@@ -2387,6 +2704,7 @@
     </row>
     <row r="132" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3"/>
+      <c r="I132"/>
       <c r="K132" s="21"/>
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
@@ -2395,6 +2713,7 @@
     </row>
     <row r="133" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3"/>
+      <c r="I133"/>
       <c r="K133" s="21"/>
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
@@ -2403,6 +2722,7 @@
     </row>
     <row r="134" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3"/>
+      <c r="I134"/>
       <c r="K134" s="21"/>
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
@@ -2411,6 +2731,7 @@
     </row>
     <row r="135" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3"/>
+      <c r="I135"/>
       <c r="K135" s="21"/>
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
@@ -2419,6 +2740,7 @@
     </row>
     <row r="136" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3"/>
+      <c r="I136"/>
       <c r="K136" s="21"/>
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
@@ -2427,6 +2749,7 @@
     </row>
     <row r="137" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3"/>
+      <c r="I137"/>
       <c r="K137" s="21"/>
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
@@ -2435,6 +2758,7 @@
     </row>
     <row r="138" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3"/>
+      <c r="I138"/>
       <c r="K138" s="21"/>
       <c r="L138" s="18"/>
       <c r="M138" s="18"/>
@@ -2443,6 +2767,7 @@
     </row>
     <row r="139" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3"/>
+      <c r="I139"/>
       <c r="K139" s="21"/>
       <c r="L139" s="18"/>
       <c r="M139" s="18"/>
@@ -2451,6 +2776,7 @@
     </row>
     <row r="140" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3"/>
+      <c r="I140"/>
       <c r="K140" s="21"/>
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
@@ -2459,6 +2785,7 @@
     </row>
     <row r="141" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3"/>
+      <c r="I141"/>
       <c r="K141" s="21"/>
       <c r="L141" s="18"/>
       <c r="M141" s="18"/>
@@ -2467,6 +2794,7 @@
     </row>
     <row r="142" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3"/>
+      <c r="I142"/>
       <c r="K142" s="21"/>
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
@@ -2475,6 +2803,7 @@
     </row>
     <row r="143" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3"/>
+      <c r="I143"/>
       <c r="K143" s="21"/>
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
@@ -2483,6 +2812,7 @@
     </row>
     <row r="144" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3"/>
+      <c r="I144"/>
       <c r="K144" s="21"/>
       <c r="L144" s="18"/>
       <c r="M144" s="18"/>
@@ -2491,6 +2821,7 @@
     </row>
     <row r="145" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3"/>
+      <c r="I145"/>
       <c r="K145" s="21"/>
       <c r="L145" s="18"/>
       <c r="M145" s="18"/>
@@ -2499,6 +2830,7 @@
     </row>
     <row r="146" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3"/>
+      <c r="I146"/>
       <c r="K146" s="21"/>
       <c r="L146" s="18"/>
       <c r="M146" s="18"/>
@@ -2507,6 +2839,7 @@
     </row>
     <row r="147" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3"/>
+      <c r="I147"/>
       <c r="K147" s="21"/>
       <c r="L147" s="18"/>
       <c r="M147" s="18"/>
@@ -2515,6 +2848,7 @@
     </row>
     <row r="148" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3"/>
+      <c r="I148"/>
       <c r="K148" s="21"/>
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
@@ -2523,6 +2857,7 @@
     </row>
     <row r="149" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A149" s="3"/>
+      <c r="I149"/>
       <c r="K149" s="21"/>
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
@@ -2531,6 +2866,7 @@
     </row>
     <row r="150" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3"/>
+      <c r="I150"/>
       <c r="K150" s="21"/>
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
@@ -2539,6 +2875,7 @@
     </row>
     <row r="151" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3"/>
+      <c r="I151"/>
       <c r="K151" s="21"/>
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
@@ -2547,6 +2884,7 @@
     </row>
     <row r="152" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A152" s="3"/>
+      <c r="I152"/>
       <c r="K152" s="21"/>
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
@@ -2555,6 +2893,7 @@
     </row>
     <row r="153" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A153" s="3"/>
+      <c r="I153"/>
       <c r="K153" s="21"/>
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
@@ -2563,6 +2902,7 @@
     </row>
     <row r="154" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A154" s="3"/>
+      <c r="I154"/>
       <c r="K154" s="21"/>
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
@@ -2571,6 +2911,7 @@
     </row>
     <row r="155" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A155" s="3"/>
+      <c r="I155"/>
       <c r="K155" s="21"/>
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
@@ -2579,6 +2920,7 @@
     </row>
     <row r="156" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A156" s="3"/>
+      <c r="I156"/>
       <c r="K156" s="21"/>
       <c r="L156" s="18"/>
       <c r="M156" s="18"/>
@@ -2587,6 +2929,7 @@
     </row>
     <row r="157" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A157" s="3"/>
+      <c r="I157"/>
       <c r="K157" s="21"/>
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
@@ -2595,6 +2938,7 @@
     </row>
     <row r="158" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A158" s="3"/>
+      <c r="I158"/>
       <c r="K158" s="21"/>
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
@@ -2603,6 +2947,7 @@
     </row>
     <row r="159" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A159" s="3"/>
+      <c r="I159"/>
       <c r="K159" s="21"/>
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
@@ -2611,6 +2956,7 @@
     </row>
     <row r="160" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A160" s="3"/>
+      <c r="I160"/>
       <c r="K160" s="21"/>
       <c r="L160" s="18"/>
       <c r="M160" s="18"/>
@@ -2619,6 +2965,7 @@
     </row>
     <row r="161" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A161" s="3"/>
+      <c r="I161"/>
       <c r="K161" s="21"/>
       <c r="L161" s="18"/>
       <c r="M161" s="18"/>
@@ -2627,6 +2974,7 @@
     </row>
     <row r="162" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A162" s="3"/>
+      <c r="I162"/>
       <c r="K162" s="21"/>
       <c r="L162" s="18"/>
       <c r="M162" s="18"/>
@@ -2635,6 +2983,7 @@
     </row>
     <row r="163" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A163" s="3"/>
+      <c r="I163"/>
       <c r="K163" s="21"/>
       <c r="L163" s="18"/>
       <c r="M163" s="18"/>
@@ -2643,6 +2992,7 @@
     </row>
     <row r="164" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A164" s="3"/>
+      <c r="I164"/>
       <c r="K164" s="21"/>
       <c r="L164" s="18"/>
       <c r="M164" s="18"/>
@@ -2651,6 +3001,7 @@
     </row>
     <row r="165" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A165" s="3"/>
+      <c r="I165"/>
       <c r="K165" s="21"/>
       <c r="L165" s="18"/>
       <c r="M165" s="18"/>
@@ -2659,6 +3010,7 @@
     </row>
     <row r="166" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A166" s="3"/>
+      <c r="I166"/>
       <c r="K166" s="21"/>
       <c r="L166" s="18"/>
       <c r="M166" s="18"/>
@@ -2667,6 +3019,7 @@
     </row>
     <row r="167" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A167" s="3"/>
+      <c r="I167"/>
       <c r="K167" s="21"/>
       <c r="L167" s="18"/>
       <c r="M167" s="18"/>
@@ -2675,6 +3028,7 @@
     </row>
     <row r="168" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A168" s="3"/>
+      <c r="I168"/>
       <c r="K168" s="21"/>
       <c r="L168" s="18"/>
       <c r="M168" s="18"/>
@@ -2683,6 +3037,7 @@
     </row>
     <row r="169" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A169" s="3"/>
+      <c r="I169"/>
       <c r="K169" s="21"/>
       <c r="L169" s="18"/>
       <c r="M169" s="18"/>
@@ -2691,6 +3046,7 @@
     </row>
     <row r="170" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A170" s="3"/>
+      <c r="I170"/>
       <c r="K170" s="21"/>
       <c r="L170" s="18"/>
       <c r="M170" s="18"/>
@@ -2699,6 +3055,7 @@
     </row>
     <row r="171" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A171" s="3"/>
+      <c r="I171"/>
       <c r="K171" s="21"/>
       <c r="L171" s="18"/>
       <c r="M171" s="18"/>
@@ -2707,6 +3064,7 @@
     </row>
     <row r="172" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A172" s="3"/>
+      <c r="I172"/>
       <c r="K172" s="21"/>
       <c r="L172" s="18"/>
       <c r="M172" s="18"/>
@@ -2715,6 +3073,7 @@
     </row>
     <row r="173" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A173" s="3"/>
+      <c r="I173"/>
       <c r="K173" s="21"/>
       <c r="L173" s="18"/>
       <c r="M173" s="18"/>
@@ -2723,6 +3082,7 @@
     </row>
     <row r="174" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A174" s="3"/>
+      <c r="I174"/>
       <c r="K174" s="21"/>
       <c r="L174" s="18"/>
       <c r="M174" s="18"/>
@@ -2731,6 +3091,7 @@
     </row>
     <row r="175" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A175" s="3"/>
+      <c r="I175"/>
       <c r="K175" s="21"/>
       <c r="L175" s="18"/>
       <c r="M175" s="18"/>
@@ -2739,6 +3100,7 @@
     </row>
     <row r="176" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A176" s="3"/>
+      <c r="I176"/>
       <c r="K176" s="21"/>
       <c r="L176" s="18"/>
       <c r="M176" s="18"/>
@@ -2747,6 +3109,7 @@
     </row>
     <row r="177" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A177" s="3"/>
+      <c r="I177"/>
       <c r="K177" s="21"/>
       <c r="L177" s="18"/>
       <c r="M177" s="18"/>
@@ -2755,6 +3118,7 @@
     </row>
     <row r="178" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A178" s="3"/>
+      <c r="I178"/>
       <c r="K178" s="21"/>
       <c r="L178" s="18"/>
       <c r="M178" s="18"/>
@@ -2763,6 +3127,7 @@
     </row>
     <row r="179" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A179" s="3"/>
+      <c r="I179"/>
       <c r="K179" s="21"/>
       <c r="L179" s="18"/>
       <c r="M179" s="18"/>
@@ -2771,6 +3136,7 @@
     </row>
     <row r="180" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A180" s="3"/>
+      <c r="I180"/>
       <c r="K180" s="21"/>
       <c r="L180" s="18"/>
       <c r="M180" s="18"/>
@@ -2779,6 +3145,7 @@
     </row>
     <row r="181" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A181" s="3"/>
+      <c r="I181"/>
       <c r="K181" s="21"/>
       <c r="L181" s="18"/>
       <c r="M181" s="18"/>
@@ -2787,6 +3154,7 @@
     </row>
     <row r="182" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A182" s="3"/>
+      <c r="I182"/>
       <c r="K182" s="21"/>
       <c r="L182" s="18"/>
       <c r="M182" s="18"/>
@@ -2795,6 +3163,7 @@
     </row>
     <row r="183" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A183" s="3"/>
+      <c r="I183"/>
       <c r="K183" s="21"/>
       <c r="L183" s="18"/>
       <c r="M183" s="18"/>
@@ -2803,6 +3172,7 @@
     </row>
     <row r="184" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A184" s="3"/>
+      <c r="I184"/>
       <c r="K184" s="21"/>
       <c r="L184" s="18"/>
       <c r="M184" s="18"/>
@@ -2811,6 +3181,7 @@
     </row>
     <row r="185" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A185" s="3"/>
+      <c r="I185"/>
       <c r="K185" s="21"/>
       <c r="L185" s="18"/>
       <c r="M185" s="18"/>
@@ -2819,6 +3190,7 @@
     </row>
     <row r="186" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A186" s="3"/>
+      <c r="I186"/>
       <c r="K186" s="21"/>
       <c r="L186" s="18"/>
       <c r="M186" s="18"/>
@@ -2827,6 +3199,7 @@
     </row>
     <row r="187" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A187" s="3"/>
+      <c r="I187"/>
       <c r="K187" s="21"/>
       <c r="L187" s="18"/>
       <c r="M187" s="18"/>
@@ -2835,6 +3208,7 @@
     </row>
     <row r="188" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A188" s="3"/>
+      <c r="I188"/>
       <c r="K188" s="21"/>
       <c r="L188" s="18"/>
       <c r="M188" s="18"/>
@@ -2843,6 +3217,7 @@
     </row>
     <row r="189" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A189" s="3"/>
+      <c r="I189"/>
       <c r="K189" s="21"/>
       <c r="L189" s="18"/>
       <c r="M189" s="18"/>
@@ -2851,6 +3226,7 @@
     </row>
     <row r="190" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A190" s="3"/>
+      <c r="I190"/>
       <c r="K190" s="21"/>
       <c r="L190" s="18"/>
       <c r="M190" s="18"/>
@@ -2859,6 +3235,7 @@
     </row>
     <row r="191" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A191" s="3"/>
+      <c r="I191"/>
       <c r="K191" s="21"/>
       <c r="L191" s="18"/>
       <c r="M191" s="18"/>
@@ -2867,6 +3244,7 @@
     </row>
     <row r="192" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A192" s="3"/>
+      <c r="I192"/>
       <c r="K192" s="21"/>
       <c r="L192" s="18"/>
       <c r="M192" s="18"/>
@@ -2875,6 +3253,7 @@
     </row>
     <row r="193" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A193" s="3"/>
+      <c r="I193"/>
       <c r="K193" s="21"/>
       <c r="L193" s="18"/>
       <c r="M193" s="18"/>
@@ -2883,6 +3262,7 @@
     </row>
     <row r="194" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A194" s="3"/>
+      <c r="I194"/>
       <c r="K194" s="21"/>
       <c r="L194" s="18"/>
       <c r="M194" s="18"/>
@@ -2891,6 +3271,7 @@
     </row>
     <row r="195" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A195" s="3"/>
+      <c r="I195"/>
       <c r="K195" s="21"/>
       <c r="L195" s="18"/>
       <c r="M195" s="18"/>
@@ -2899,6 +3280,7 @@
     </row>
     <row r="196" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A196" s="3"/>
+      <c r="I196"/>
       <c r="K196" s="21"/>
       <c r="L196" s="18"/>
       <c r="M196" s="18"/>
@@ -2907,6 +3289,7 @@
     </row>
     <row r="197" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A197" s="3"/>
+      <c r="I197"/>
       <c r="K197" s="21"/>
       <c r="L197" s="18"/>
       <c r="M197" s="18"/>
@@ -2915,6 +3298,7 @@
     </row>
     <row r="198" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A198" s="3"/>
+      <c r="I198"/>
       <c r="K198" s="21"/>
       <c r="L198" s="18"/>
       <c r="M198" s="18"/>
@@ -2923,6 +3307,7 @@
     </row>
     <row r="199" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A199" s="3"/>
+      <c r="I199"/>
       <c r="K199" s="21"/>
       <c r="L199" s="18"/>
       <c r="M199" s="18"/>
@@ -2931,6 +3316,7 @@
     </row>
     <row r="200" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A200" s="3"/>
+      <c r="I200"/>
       <c r="K200" s="21"/>
       <c r="L200" s="18"/>
       <c r="M200" s="18"/>
@@ -2939,6 +3325,7 @@
     </row>
     <row r="201" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A201" s="3"/>
+      <c r="I201"/>
       <c r="K201" s="21"/>
       <c r="L201" s="18"/>
       <c r="M201" s="18"/>
@@ -2947,6 +3334,7 @@
     </row>
     <row r="202" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A202" s="3"/>
+      <c r="I202"/>
       <c r="K202" s="21"/>
       <c r="L202" s="18"/>
       <c r="M202" s="18"/>
@@ -2955,6 +3343,7 @@
     </row>
     <row r="203" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A203" s="3"/>
+      <c r="I203"/>
       <c r="K203" s="21"/>
       <c r="L203" s="18"/>
       <c r="M203" s="18"/>
@@ -2963,6 +3352,7 @@
     </row>
     <row r="204" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A204" s="3"/>
+      <c r="I204"/>
       <c r="K204" s="21"/>
       <c r="L204" s="18"/>
       <c r="M204" s="18"/>
@@ -2971,6 +3361,7 @@
     </row>
     <row r="205" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A205" s="3"/>
+      <c r="I205"/>
       <c r="K205" s="21"/>
       <c r="L205" s="18"/>
       <c r="M205" s="18"/>
@@ -2979,6 +3370,7 @@
     </row>
     <row r="206" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A206" s="3"/>
+      <c r="I206"/>
       <c r="K206" s="21"/>
       <c r="L206" s="18"/>
       <c r="M206" s="18"/>
@@ -2987,6 +3379,7 @@
     </row>
     <row r="207" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A207" s="3"/>
+      <c r="I207"/>
       <c r="K207" s="21"/>
       <c r="L207" s="18"/>
       <c r="M207" s="18"/>
@@ -2995,6 +3388,7 @@
     </row>
     <row r="208" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A208" s="3"/>
+      <c r="I208"/>
       <c r="K208" s="21"/>
       <c r="L208" s="18"/>
       <c r="M208" s="18"/>
@@ -3003,6 +3397,7 @@
     </row>
     <row r="209" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A209" s="3"/>
+      <c r="I209"/>
       <c r="K209" s="21"/>
       <c r="L209" s="18"/>
       <c r="M209" s="18"/>
@@ -3011,6 +3406,7 @@
     </row>
     <row r="210" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A210" s="3"/>
+      <c r="I210"/>
       <c r="K210" s="21"/>
       <c r="L210" s="18"/>
       <c r="M210" s="18"/>
@@ -3019,6 +3415,7 @@
     </row>
     <row r="211" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A211" s="3"/>
+      <c r="I211"/>
       <c r="K211" s="21"/>
       <c r="L211" s="18"/>
       <c r="M211" s="18"/>
@@ -3027,6 +3424,7 @@
     </row>
     <row r="212" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A212" s="3"/>
+      <c r="I212"/>
       <c r="K212" s="21"/>
       <c r="L212" s="18"/>
       <c r="M212" s="18"/>
@@ -3035,6 +3433,7 @@
     </row>
     <row r="213" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A213" s="3"/>
+      <c r="I213"/>
       <c r="K213" s="21"/>
       <c r="L213" s="18"/>
       <c r="M213" s="18"/>
@@ -3043,6 +3442,7 @@
     </row>
     <row r="214" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A214" s="3"/>
+      <c r="I214"/>
       <c r="K214" s="21"/>
       <c r="L214" s="18"/>
       <c r="M214" s="18"/>
@@ -3051,6 +3451,7 @@
     </row>
     <row r="215" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A215" s="3"/>
+      <c r="I215"/>
       <c r="K215" s="21"/>
       <c r="L215" s="18"/>
       <c r="M215" s="18"/>
@@ -3059,6 +3460,7 @@
     </row>
     <row r="216" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A216" s="3"/>
+      <c r="I216"/>
       <c r="K216" s="21"/>
       <c r="L216" s="18"/>
       <c r="M216" s="18"/>
@@ -3067,6 +3469,7 @@
     </row>
     <row r="217" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A217" s="3"/>
+      <c r="I217"/>
       <c r="K217" s="21"/>
       <c r="L217" s="18"/>
       <c r="M217" s="18"/>
@@ -3075,6 +3478,7 @@
     </row>
     <row r="218" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A218" s="3"/>
+      <c r="I218"/>
       <c r="K218" s="21"/>
       <c r="L218" s="18"/>
       <c r="M218" s="18"/>
@@ -3083,6 +3487,7 @@
     </row>
     <row r="219" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A219" s="3"/>
+      <c r="I219"/>
       <c r="K219" s="21"/>
       <c r="L219" s="18"/>
       <c r="M219" s="18"/>
@@ -3091,6 +3496,7 @@
     </row>
     <row r="220" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A220" s="3"/>
+      <c r="I220"/>
       <c r="K220" s="21"/>
       <c r="L220" s="18"/>
       <c r="M220" s="18"/>
@@ -3099,6 +3505,7 @@
     </row>
     <row r="221" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A221" s="3"/>
+      <c r="I221"/>
       <c r="K221" s="21"/>
       <c r="L221" s="18"/>
       <c r="M221" s="18"/>
@@ -3107,6 +3514,7 @@
     </row>
     <row r="222" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A222" s="3"/>
+      <c r="I222"/>
       <c r="K222" s="21"/>
       <c r="L222" s="18"/>
       <c r="M222" s="18"/>
@@ -3115,6 +3523,7 @@
     </row>
     <row r="223" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A223" s="3"/>
+      <c r="I223"/>
       <c r="K223" s="21"/>
       <c r="L223" s="18"/>
       <c r="M223" s="18"/>
@@ -3123,6 +3532,7 @@
     </row>
     <row r="224" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A224" s="3"/>
+      <c r="I224"/>
       <c r="K224" s="21"/>
       <c r="L224" s="18"/>
       <c r="M224" s="18"/>
@@ -3131,6 +3541,7 @@
     </row>
     <row r="225" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A225" s="3"/>
+      <c r="I225"/>
       <c r="K225" s="21"/>
       <c r="L225" s="18"/>
       <c r="M225" s="18"/>
@@ -3139,6 +3550,7 @@
     </row>
     <row r="226" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A226" s="3"/>
+      <c r="I226"/>
       <c r="K226" s="21"/>
       <c r="L226" s="18"/>
       <c r="M226" s="18"/>
@@ -3147,6 +3559,7 @@
     </row>
     <row r="227" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A227" s="3"/>
+      <c r="I227"/>
       <c r="K227" s="21"/>
       <c r="L227" s="18"/>
       <c r="M227" s="18"/>
@@ -3155,6 +3568,7 @@
     </row>
     <row r="228" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A228" s="3"/>
+      <c r="I228"/>
       <c r="K228" s="21"/>
       <c r="L228" s="18"/>
       <c r="M228" s="18"/>
@@ -3163,6 +3577,7 @@
     </row>
     <row r="229" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A229" s="3"/>
+      <c r="I229"/>
       <c r="K229" s="21"/>
       <c r="L229" s="18"/>
       <c r="M229" s="18"/>
@@ -3171,6 +3586,7 @@
     </row>
     <row r="230" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A230" s="3"/>
+      <c r="I230"/>
       <c r="K230" s="21"/>
       <c r="L230" s="18"/>
       <c r="M230" s="18"/>
@@ -3179,6 +3595,7 @@
     </row>
     <row r="231" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A231" s="3"/>
+      <c r="I231"/>
       <c r="K231" s="21"/>
       <c r="L231" s="18"/>
       <c r="M231" s="18"/>
@@ -3187,6 +3604,7 @@
     </row>
     <row r="232" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A232" s="3"/>
+      <c r="I232"/>
       <c r="K232" s="21"/>
       <c r="L232" s="18"/>
       <c r="M232" s="18"/>
@@ -3195,6 +3613,7 @@
     </row>
     <row r="233" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A233" s="3"/>
+      <c r="I233"/>
       <c r="K233" s="21"/>
       <c r="L233" s="18"/>
       <c r="M233" s="18"/>
@@ -3203,6 +3622,7 @@
     </row>
     <row r="234" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A234" s="3"/>
+      <c r="I234"/>
       <c r="K234" s="21"/>
       <c r="L234" s="18"/>
       <c r="M234" s="18"/>
@@ -3211,6 +3631,7 @@
     </row>
     <row r="235" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A235" s="3"/>
+      <c r="I235"/>
       <c r="K235" s="21"/>
       <c r="L235" s="18"/>
       <c r="M235" s="18"/>
@@ -3219,6 +3640,7 @@
     </row>
     <row r="236" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A236" s="3"/>
+      <c r="I236"/>
       <c r="K236" s="21"/>
       <c r="L236" s="18"/>
       <c r="M236" s="18"/>
@@ -3227,6 +3649,7 @@
     </row>
     <row r="237" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A237" s="3"/>
+      <c r="I237"/>
       <c r="K237" s="21"/>
       <c r="L237" s="18"/>
       <c r="M237" s="18"/>
@@ -3235,6 +3658,7 @@
     </row>
     <row r="238" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A238" s="3"/>
+      <c r="I238"/>
       <c r="K238" s="21"/>
       <c r="L238" s="18"/>
       <c r="M238" s="18"/>
@@ -3243,6 +3667,7 @@
     </row>
     <row r="239" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A239" s="3"/>
+      <c r="I239"/>
       <c r="K239" s="21"/>
       <c r="L239" s="18"/>
       <c r="M239" s="18"/>
@@ -3251,6 +3676,7 @@
     </row>
     <row r="240" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A240" s="3"/>
+      <c r="I240"/>
       <c r="K240" s="21"/>
       <c r="L240" s="18"/>
       <c r="M240" s="18"/>
@@ -3259,6 +3685,7 @@
     </row>
     <row r="241" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A241" s="3"/>
+      <c r="I241"/>
       <c r="K241" s="21"/>
       <c r="L241" s="18"/>
       <c r="M241" s="18"/>
@@ -3267,6 +3694,7 @@
     </row>
     <row r="242" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A242" s="3"/>
+      <c r="I242"/>
       <c r="K242" s="21"/>
       <c r="L242" s="18"/>
       <c r="M242" s="18"/>
@@ -3275,6 +3703,7 @@
     </row>
     <row r="243" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A243" s="3"/>
+      <c r="I243"/>
       <c r="K243" s="21"/>
       <c r="L243" s="18"/>
       <c r="M243" s="18"/>
@@ -3283,6 +3712,7 @@
     </row>
     <row r="244" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A244" s="3"/>
+      <c r="I244"/>
       <c r="K244" s="21"/>
       <c r="L244" s="18"/>
       <c r="M244" s="18"/>
@@ -3291,6 +3721,7 @@
     </row>
     <row r="245" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A245" s="3"/>
+      <c r="I245"/>
       <c r="K245" s="21"/>
       <c r="L245" s="18"/>
       <c r="M245" s="18"/>
@@ -3299,6 +3730,7 @@
     </row>
     <row r="246" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A246" s="3"/>
+      <c r="I246"/>
       <c r="K246" s="21"/>
       <c r="L246" s="18"/>
       <c r="M246" s="18"/>
@@ -3307,6 +3739,7 @@
     </row>
     <row r="247" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A247" s="3"/>
+      <c r="I247"/>
       <c r="K247" s="21"/>
       <c r="L247" s="18"/>
       <c r="M247" s="18"/>
@@ -3315,6 +3748,7 @@
     </row>
     <row r="248" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A248" s="3"/>
+      <c r="I248"/>
       <c r="K248" s="21"/>
       <c r="L248" s="18"/>
       <c r="M248" s="18"/>
@@ -3323,6 +3757,7 @@
     </row>
     <row r="249" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A249" s="3"/>
+      <c r="I249"/>
       <c r="K249" s="21"/>
       <c r="L249" s="18"/>
       <c r="M249" s="18"/>
@@ -3331,6 +3766,7 @@
     </row>
     <row r="250" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A250" s="3"/>
+      <c r="I250"/>
       <c r="K250" s="21"/>
       <c r="L250" s="18"/>
       <c r="M250" s="18"/>
@@ -3339,6 +3775,7 @@
     </row>
     <row r="251" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A251" s="3"/>
+      <c r="I251"/>
       <c r="K251" s="21"/>
       <c r="L251" s="18"/>
       <c r="M251" s="18"/>
@@ -3347,6 +3784,7 @@
     </row>
     <row r="252" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A252" s="3"/>
+      <c r="I252"/>
       <c r="K252" s="21"/>
       <c r="L252" s="18"/>
       <c r="M252" s="18"/>
@@ -3355,6 +3793,7 @@
     </row>
     <row r="253" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A253" s="3"/>
+      <c r="I253"/>
       <c r="K253" s="21"/>
       <c r="L253" s="18"/>
       <c r="M253" s="18"/>
@@ -3363,6 +3802,7 @@
     </row>
     <row r="254" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A254" s="3"/>
+      <c r="I254"/>
       <c r="K254" s="21"/>
       <c r="L254" s="18"/>
       <c r="M254" s="18"/>
@@ -3371,6 +3811,7 @@
     </row>
     <row r="255" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A255" s="3"/>
+      <c r="I255"/>
       <c r="K255" s="21"/>
       <c r="L255" s="18"/>
       <c r="M255" s="18"/>
@@ -3379,6 +3820,7 @@
     </row>
     <row r="256" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A256" s="3"/>
+      <c r="I256"/>
       <c r="K256" s="21"/>
       <c r="L256" s="18"/>
       <c r="M256" s="18"/>
@@ -3387,6 +3829,7 @@
     </row>
     <row r="257" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A257" s="3"/>
+      <c r="I257"/>
       <c r="K257" s="21"/>
       <c r="L257" s="18"/>
       <c r="M257" s="18"/>
@@ -3395,6 +3838,7 @@
     </row>
     <row r="258" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A258" s="3"/>
+      <c r="I258"/>
       <c r="K258" s="21"/>
       <c r="L258" s="18"/>
       <c r="M258" s="18"/>
@@ -3403,6 +3847,7 @@
     </row>
     <row r="259" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A259" s="3"/>
+      <c r="I259"/>
       <c r="K259" s="21"/>
       <c r="L259" s="18"/>
       <c r="M259" s="18"/>
@@ -3411,6 +3856,7 @@
     </row>
     <row r="260" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A260" s="3"/>
+      <c r="I260"/>
       <c r="K260" s="21"/>
       <c r="L260" s="18"/>
       <c r="M260" s="18"/>
@@ -3419,6 +3865,7 @@
     </row>
     <row r="261" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A261" s="3"/>
+      <c r="I261"/>
       <c r="K261" s="21"/>
       <c r="L261" s="18"/>
       <c r="M261" s="18"/>
@@ -3427,6 +3874,7 @@
     </row>
     <row r="262" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A262" s="3"/>
+      <c r="I262"/>
       <c r="K262" s="21"/>
       <c r="L262" s="18"/>
       <c r="M262" s="18"/>
@@ -3435,6 +3883,7 @@
     </row>
     <row r="263" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A263" s="3"/>
+      <c r="I263"/>
       <c r="K263" s="21"/>
       <c r="L263" s="18"/>
       <c r="M263" s="18"/>
@@ -3443,6 +3892,7 @@
     </row>
     <row r="264" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A264" s="3"/>
+      <c r="I264"/>
       <c r="K264" s="21"/>
       <c r="L264" s="18"/>
       <c r="M264" s="18"/>
@@ -3451,6 +3901,7 @@
     </row>
     <row r="265" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A265" s="3"/>
+      <c r="I265"/>
       <c r="K265" s="21"/>
       <c r="L265" s="18"/>
       <c r="M265" s="18"/>
@@ -3459,6 +3910,7 @@
     </row>
     <row r="266" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A266" s="3"/>
+      <c r="I266"/>
       <c r="K266" s="21"/>
       <c r="L266" s="18"/>
       <c r="M266" s="18"/>
@@ -3467,6 +3919,7 @@
     </row>
     <row r="267" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A267" s="3"/>
+      <c r="I267"/>
       <c r="K267" s="21"/>
       <c r="L267" s="18"/>
       <c r="M267" s="18"/>
@@ -3475,6 +3928,7 @@
     </row>
     <row r="268" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A268" s="3"/>
+      <c r="I268"/>
       <c r="K268" s="21"/>
       <c r="L268" s="18"/>
       <c r="M268" s="18"/>
@@ -3483,6 +3937,7 @@
     </row>
     <row r="269" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A269" s="3"/>
+      <c r="I269"/>
       <c r="K269" s="21"/>
       <c r="L269" s="18"/>
       <c r="M269" s="18"/>
@@ -3491,6 +3946,7 @@
     </row>
     <row r="270" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A270" s="3"/>
+      <c r="I270"/>
       <c r="K270" s="21"/>
       <c r="L270" s="18"/>
       <c r="M270" s="18"/>
@@ -3499,6 +3955,7 @@
     </row>
     <row r="271" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A271" s="3"/>
+      <c r="I271"/>
       <c r="K271" s="21"/>
       <c r="L271" s="18"/>
       <c r="M271" s="18"/>
@@ -3507,6 +3964,7 @@
     </row>
     <row r="272" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A272" s="3"/>
+      <c r="I272"/>
       <c r="K272" s="21"/>
       <c r="L272" s="18"/>
       <c r="M272" s="18"/>
@@ -3515,6 +3973,7 @@
     </row>
     <row r="273" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A273" s="3"/>
+      <c r="I273"/>
       <c r="K273" s="21"/>
       <c r="L273" s="18"/>
       <c r="M273" s="18"/>
@@ -3523,6 +3982,7 @@
     </row>
     <row r="274" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A274" s="3"/>
+      <c r="I274"/>
       <c r="K274" s="21"/>
       <c r="L274" s="18"/>
       <c r="M274" s="18"/>
@@ -3531,6 +3991,7 @@
     </row>
     <row r="275" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A275" s="3"/>
+      <c r="I275"/>
       <c r="K275" s="21"/>
       <c r="L275" s="18"/>
       <c r="M275" s="18"/>
@@ -3539,6 +4000,7 @@
     </row>
     <row r="276" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A276" s="3"/>
+      <c r="I276"/>
       <c r="K276" s="21"/>
       <c r="L276" s="18"/>
       <c r="M276" s="18"/>
@@ -3547,6 +4009,7 @@
     </row>
     <row r="277" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A277" s="3"/>
+      <c r="I277"/>
       <c r="K277" s="21"/>
       <c r="L277" s="18"/>
       <c r="M277" s="18"/>
@@ -3555,6 +4018,7 @@
     </row>
     <row r="278" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A278" s="3"/>
+      <c r="I278"/>
       <c r="K278" s="21"/>
       <c r="L278" s="18"/>
       <c r="M278" s="18"/>
@@ -3563,6 +4027,7 @@
     </row>
     <row r="279" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A279" s="3"/>
+      <c r="I279"/>
       <c r="K279" s="21"/>
       <c r="L279" s="18"/>
       <c r="M279" s="18"/>
@@ -3571,6 +4036,7 @@
     </row>
     <row r="280" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A280" s="3"/>
+      <c r="I280"/>
       <c r="K280" s="21"/>
       <c r="L280" s="18"/>
       <c r="M280" s="18"/>
@@ -3579,6 +4045,7 @@
     </row>
     <row r="281" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A281" s="3"/>
+      <c r="I281"/>
       <c r="K281" s="21"/>
       <c r="L281" s="18"/>
       <c r="M281" s="18"/>
@@ -3587,6 +4054,7 @@
     </row>
     <row r="282" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A282" s="3"/>
+      <c r="I282"/>
       <c r="K282" s="21"/>
       <c r="L282" s="18"/>
       <c r="M282" s="18"/>
@@ -3595,6 +4063,7 @@
     </row>
     <row r="283" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A283" s="3"/>
+      <c r="I283"/>
       <c r="K283" s="21"/>
       <c r="L283" s="18"/>
       <c r="M283" s="18"/>
@@ -3603,6 +4072,7 @@
     </row>
     <row r="284" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A284" s="3"/>
+      <c r="I284"/>
       <c r="K284" s="21"/>
       <c r="L284" s="18"/>
       <c r="M284" s="18"/>
@@ -3611,6 +4081,7 @@
     </row>
     <row r="285" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A285" s="3"/>
+      <c r="I285"/>
       <c r="K285" s="21"/>
       <c r="L285" s="18"/>
       <c r="M285" s="18"/>
@@ -3619,6 +4090,7 @@
     </row>
     <row r="286" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A286" s="3"/>
+      <c r="I286"/>
       <c r="K286" s="21"/>
       <c r="L286" s="18"/>
       <c r="M286" s="18"/>
@@ -3627,6 +4099,7 @@
     </row>
     <row r="287" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A287" s="3"/>
+      <c r="I287"/>
       <c r="K287" s="21"/>
       <c r="L287" s="18"/>
       <c r="M287" s="18"/>
@@ -3635,6 +4108,7 @@
     </row>
     <row r="288" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A288" s="3"/>
+      <c r="I288"/>
       <c r="K288" s="21"/>
       <c r="L288" s="18"/>
       <c r="M288" s="18"/>
@@ -3643,6 +4117,7 @@
     </row>
     <row r="289" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A289" s="3"/>
+      <c r="I289"/>
       <c r="K289" s="21"/>
       <c r="L289" s="18"/>
       <c r="M289" s="18"/>
@@ -3651,6 +4126,7 @@
     </row>
     <row r="290" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A290" s="3"/>
+      <c r="I290"/>
       <c r="K290" s="21"/>
       <c r="L290" s="18"/>
       <c r="M290" s="18"/>
@@ -3659,6 +4135,7 @@
     </row>
     <row r="291" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A291" s="3"/>
+      <c r="I291"/>
       <c r="K291" s="21"/>
       <c r="L291" s="18"/>
       <c r="M291" s="18"/>
@@ -3667,6 +4144,7 @@
     </row>
     <row r="292" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A292" s="3"/>
+      <c r="I292"/>
       <c r="K292" s="21"/>
       <c r="L292" s="18"/>
       <c r="M292" s="18"/>
@@ -3675,6 +4153,7 @@
     </row>
     <row r="293" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A293" s="3"/>
+      <c r="I293"/>
       <c r="K293" s="21"/>
       <c r="L293" s="18"/>
       <c r="M293" s="18"/>
@@ -3683,6 +4162,7 @@
     </row>
     <row r="294" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A294" s="3"/>
+      <c r="I294"/>
       <c r="K294" s="21"/>
       <c r="L294" s="18"/>
       <c r="M294" s="18"/>
@@ -3691,6 +4171,7 @@
     </row>
     <row r="295" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A295" s="3"/>
+      <c r="I295"/>
       <c r="K295" s="21"/>
       <c r="L295" s="18"/>
       <c r="M295" s="18"/>
@@ -3699,6 +4180,7 @@
     </row>
     <row r="296" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A296" s="3"/>
+      <c r="I296"/>
       <c r="K296" s="21"/>
       <c r="L296" s="18"/>
       <c r="M296" s="18"/>
@@ -3707,6 +4189,7 @@
     </row>
     <row r="297" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A297" s="3"/>
+      <c r="I297"/>
       <c r="K297" s="21"/>
       <c r="L297" s="18"/>
       <c r="M297" s="18"/>
@@ -3715,6 +4198,7 @@
     </row>
     <row r="298" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A298" s="3"/>
+      <c r="I298"/>
       <c r="K298" s="21"/>
       <c r="L298" s="18"/>
       <c r="M298" s="18"/>
@@ -3723,6 +4207,7 @@
     </row>
     <row r="299" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A299" s="3"/>
+      <c r="I299"/>
       <c r="K299" s="21"/>
       <c r="L299" s="18"/>
       <c r="M299" s="18"/>
@@ -3731,6 +4216,7 @@
     </row>
     <row r="300" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A300" s="3"/>
+      <c r="I300"/>
       <c r="K300" s="21"/>
       <c r="L300" s="18"/>
       <c r="M300" s="18"/>
@@ -3739,6 +4225,7 @@
     </row>
     <row r="301" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A301" s="3"/>
+      <c r="I301"/>
       <c r="K301" s="21"/>
       <c r="L301" s="18"/>
       <c r="M301" s="18"/>
@@ -3747,6 +4234,7 @@
     </row>
     <row r="302" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A302" s="3"/>
+      <c r="I302"/>
       <c r="K302" s="21"/>
       <c r="L302" s="18"/>
       <c r="M302" s="18"/>
@@ -3755,6 +4243,7 @@
     </row>
     <row r="303" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A303" s="3"/>
+      <c r="I303"/>
       <c r="K303" s="21"/>
       <c r="L303" s="18"/>
       <c r="M303" s="18"/>
@@ -3763,6 +4252,7 @@
     </row>
     <row r="304" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A304" s="3"/>
+      <c r="I304"/>
       <c r="K304" s="21"/>
       <c r="L304" s="18"/>
       <c r="M304" s="18"/>
@@ -3771,6 +4261,7 @@
     </row>
     <row r="305" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A305" s="3"/>
+      <c r="I305"/>
       <c r="K305" s="21"/>
       <c r="L305" s="18"/>
       <c r="M305" s="18"/>
@@ -3779,6 +4270,7 @@
     </row>
     <row r="306" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A306" s="3"/>
+      <c r="I306"/>
       <c r="K306" s="21"/>
       <c r="L306" s="18"/>
       <c r="M306" s="18"/>
@@ -3787,6 +4279,7 @@
     </row>
     <row r="307" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A307" s="3"/>
+      <c r="I307"/>
       <c r="K307" s="21"/>
       <c r="L307" s="18"/>
       <c r="M307" s="18"/>
@@ -3795,6 +4288,7 @@
     </row>
     <row r="308" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A308" s="3"/>
+      <c r="I308"/>
       <c r="K308" s="21"/>
       <c r="L308" s="18"/>
       <c r="M308" s="18"/>
@@ -3803,6 +4297,7 @@
     </row>
     <row r="309" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A309" s="3"/>
+      <c r="I309"/>
       <c r="K309" s="21"/>
       <c r="L309" s="18"/>
       <c r="M309" s="18"/>
@@ -3811,6 +4306,7 @@
     </row>
     <row r="310" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A310" s="3"/>
+      <c r="I310"/>
       <c r="K310" s="21"/>
       <c r="L310" s="18"/>
       <c r="M310" s="18"/>
@@ -3819,6 +4315,7 @@
     </row>
     <row r="311" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A311" s="3"/>
+      <c r="I311"/>
       <c r="K311" s="21"/>
       <c r="L311" s="18"/>
       <c r="M311" s="18"/>
@@ -3827,6 +4324,7 @@
     </row>
     <row r="312" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A312" s="3"/>
+      <c r="I312"/>
       <c r="K312" s="21"/>
       <c r="L312" s="18"/>
       <c r="M312" s="18"/>
@@ -3835,6 +4333,7 @@
     </row>
     <row r="313" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A313" s="3"/>
+      <c r="I313"/>
       <c r="K313" s="21"/>
       <c r="L313" s="18"/>
       <c r="M313" s="18"/>
@@ -3843,6 +4342,7 @@
     </row>
     <row r="314" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A314" s="3"/>
+      <c r="I314"/>
       <c r="K314" s="21"/>
       <c r="L314" s="18"/>
       <c r="M314" s="18"/>
@@ -3851,6 +4351,7 @@
     </row>
     <row r="315" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A315" s="3"/>
+      <c r="I315"/>
       <c r="K315" s="21"/>
       <c r="L315" s="18"/>
       <c r="M315" s="18"/>
@@ -3859,6 +4360,7 @@
     </row>
     <row r="316" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A316" s="3"/>
+      <c r="I316"/>
       <c r="K316" s="21"/>
       <c r="L316" s="18"/>
       <c r="M316" s="18"/>
@@ -3867,6 +4369,7 @@
     </row>
     <row r="317" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A317" s="3"/>
+      <c r="I317"/>
       <c r="K317" s="21"/>
       <c r="L317" s="18"/>
       <c r="M317" s="18"/>
@@ -3875,6 +4378,7 @@
     </row>
     <row r="318" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A318" s="3"/>
+      <c r="I318"/>
       <c r="K318" s="21"/>
       <c r="L318" s="18"/>
       <c r="M318" s="18"/>
@@ -3883,6 +4387,7 @@
     </row>
     <row r="319" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A319" s="3"/>
+      <c r="I319"/>
       <c r="K319" s="21"/>
       <c r="L319" s="18"/>
       <c r="M319" s="18"/>
@@ -3891,6 +4396,7 @@
     </row>
     <row r="320" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A320" s="3"/>
+      <c r="I320"/>
       <c r="K320" s="21"/>
       <c r="L320" s="18"/>
       <c r="M320" s="18"/>
@@ -3899,6 +4405,7 @@
     </row>
     <row r="321" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A321" s="3"/>
+      <c r="I321"/>
       <c r="K321" s="21"/>
       <c r="L321" s="18"/>
       <c r="M321" s="18"/>
@@ -3907,6 +4414,7 @@
     </row>
     <row r="322" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A322" s="3"/>
+      <c r="I322"/>
       <c r="K322" s="21"/>
       <c r="L322" s="18"/>
       <c r="M322" s="18"/>
@@ -3915,6 +4423,7 @@
     </row>
     <row r="323" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A323" s="3"/>
+      <c r="I323"/>
       <c r="K323" s="21"/>
       <c r="L323" s="18"/>
       <c r="M323" s="18"/>
@@ -3923,6 +4432,7 @@
     </row>
     <row r="324" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A324" s="3"/>
+      <c r="I324"/>
       <c r="K324" s="21"/>
       <c r="L324" s="18"/>
       <c r="M324" s="18"/>
@@ -3931,6 +4441,7 @@
     </row>
     <row r="325" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A325" s="3"/>
+      <c r="I325"/>
       <c r="K325" s="21"/>
       <c r="L325" s="18"/>
       <c r="M325" s="18"/>
@@ -3939,6 +4450,7 @@
     </row>
     <row r="326" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A326" s="3"/>
+      <c r="I326"/>
       <c r="K326" s="21"/>
       <c r="L326" s="18"/>
       <c r="M326" s="18"/>
@@ -3947,6 +4459,7 @@
     </row>
     <row r="327" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A327" s="3"/>
+      <c r="I327"/>
       <c r="K327" s="21"/>
       <c r="L327" s="18"/>
       <c r="M327" s="18"/>
@@ -3955,6 +4468,7 @@
     </row>
     <row r="328" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A328" s="3"/>
+      <c r="I328"/>
       <c r="K328" s="21"/>
       <c r="L328" s="18"/>
       <c r="M328" s="18"/>
@@ -3963,6 +4477,7 @@
     </row>
     <row r="329" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A329" s="3"/>
+      <c r="I329"/>
       <c r="K329" s="21"/>
       <c r="L329" s="18"/>
       <c r="M329" s="18"/>
@@ -3971,6 +4486,7 @@
     </row>
     <row r="330" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A330" s="3"/>
+      <c r="I330"/>
       <c r="K330" s="21"/>
       <c r="L330" s="18"/>
       <c r="M330" s="18"/>
@@ -3979,6 +4495,7 @@
     </row>
     <row r="331" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A331" s="3"/>
+      <c r="I331"/>
       <c r="K331" s="21"/>
       <c r="L331" s="18"/>
       <c r="M331" s="18"/>
@@ -3987,6 +4504,7 @@
     </row>
     <row r="332" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A332" s="3"/>
+      <c r="I332"/>
       <c r="K332" s="21"/>
       <c r="L332" s="18"/>
       <c r="M332" s="18"/>
@@ -3995,6 +4513,7 @@
     </row>
     <row r="333" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A333" s="3"/>
+      <c r="I333"/>
       <c r="K333" s="21"/>
       <c r="L333" s="18"/>
       <c r="M333" s="18"/>
@@ -4003,6 +4522,7 @@
     </row>
     <row r="334" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A334" s="3"/>
+      <c r="I334"/>
       <c r="K334" s="21"/>
       <c r="L334" s="18"/>
       <c r="M334" s="18"/>
@@ -4011,6 +4531,7 @@
     </row>
     <row r="335" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A335" s="3"/>
+      <c r="I335"/>
       <c r="K335" s="21"/>
       <c r="L335" s="18"/>
       <c r="M335" s="18"/>
@@ -4019,6 +4540,7 @@
     </row>
     <row r="336" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A336" s="3"/>
+      <c r="I336"/>
       <c r="K336" s="21"/>
       <c r="L336" s="18"/>
       <c r="M336" s="18"/>
@@ -4027,6 +4549,7 @@
     </row>
     <row r="337" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A337" s="3"/>
+      <c r="I337"/>
       <c r="K337" s="21"/>
       <c r="L337" s="18"/>
       <c r="M337" s="18"/>
@@ -4035,6 +4558,7 @@
     </row>
     <row r="338" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A338" s="3"/>
+      <c r="I338"/>
       <c r="K338" s="21"/>
       <c r="L338" s="18"/>
       <c r="M338" s="18"/>
@@ -4043,6 +4567,7 @@
     </row>
     <row r="339" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A339" s="3"/>
+      <c r="I339"/>
       <c r="K339" s="21"/>
       <c r="L339" s="18"/>
       <c r="M339" s="18"/>
@@ -4051,6 +4576,7 @@
     </row>
     <row r="340" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A340" s="3"/>
+      <c r="I340"/>
       <c r="K340" s="21"/>
       <c r="L340" s="18"/>
       <c r="M340" s="18"/>
@@ -4059,6 +4585,7 @@
     </row>
     <row r="341" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A341" s="3"/>
+      <c r="I341"/>
       <c r="K341" s="21"/>
       <c r="L341" s="18"/>
       <c r="M341" s="18"/>
@@ -4067,6 +4594,7 @@
     </row>
     <row r="342" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A342" s="3"/>
+      <c r="I342"/>
       <c r="K342" s="21"/>
       <c r="L342" s="18"/>
       <c r="M342" s="18"/>
@@ -4075,6 +4603,7 @@
     </row>
     <row r="343" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A343" s="3"/>
+      <c r="I343"/>
       <c r="K343" s="21"/>
       <c r="L343" s="18"/>
       <c r="M343" s="18"/>
@@ -4083,6 +4612,7 @@
     </row>
     <row r="344" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A344" s="3"/>
+      <c r="I344"/>
       <c r="K344" s="21"/>
       <c r="L344" s="18"/>
       <c r="M344" s="18"/>
@@ -4091,6 +4621,7 @@
     </row>
     <row r="345" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A345" s="3"/>
+      <c r="I345"/>
       <c r="K345" s="21"/>
       <c r="L345" s="18"/>
       <c r="M345" s="18"/>
@@ -4099,6 +4630,7 @@
     </row>
     <row r="346" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A346" s="3"/>
+      <c r="I346"/>
       <c r="K346" s="21"/>
       <c r="L346" s="18"/>
       <c r="M346" s="18"/>
@@ -4107,6 +4639,7 @@
     </row>
     <row r="347" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A347" s="3"/>
+      <c r="I347"/>
       <c r="K347" s="21"/>
       <c r="L347" s="18"/>
       <c r="M347" s="18"/>
@@ -4115,6 +4648,7 @@
     </row>
     <row r="348" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A348" s="3"/>
+      <c r="I348"/>
       <c r="K348" s="21"/>
       <c r="L348" s="18"/>
       <c r="M348" s="18"/>
@@ -4123,6 +4657,7 @@
     </row>
     <row r="349" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A349" s="3"/>
+      <c r="I349"/>
       <c r="K349" s="21"/>
       <c r="L349" s="18"/>
       <c r="M349" s="18"/>
@@ -4131,6 +4666,7 @@
     </row>
     <row r="350" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A350" s="3"/>
+      <c r="I350"/>
       <c r="K350" s="21"/>
       <c r="L350" s="18"/>
       <c r="M350" s="18"/>
@@ -4139,6 +4675,7 @@
     </row>
     <row r="351" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A351" s="3"/>
+      <c r="I351"/>
       <c r="K351" s="21"/>
       <c r="L351" s="18"/>
       <c r="M351" s="18"/>
@@ -4147,6 +4684,7 @@
     </row>
     <row r="352" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A352" s="3"/>
+      <c r="I352"/>
       <c r="K352" s="21"/>
       <c r="L352" s="18"/>
       <c r="M352" s="18"/>
@@ -4155,6 +4693,7 @@
     </row>
     <row r="353" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A353" s="3"/>
+      <c r="I353"/>
       <c r="K353" s="21"/>
       <c r="L353" s="18"/>
       <c r="M353" s="18"/>
@@ -4163,6 +4702,7 @@
     </row>
     <row r="354" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A354" s="3"/>
+      <c r="I354"/>
       <c r="K354" s="21"/>
       <c r="L354" s="18"/>
       <c r="M354" s="18"/>
@@ -4171,6 +4711,7 @@
     </row>
     <row r="355" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A355" s="3"/>
+      <c r="I355"/>
       <c r="K355" s="21"/>
       <c r="L355" s="18"/>
       <c r="M355" s="18"/>
@@ -4179,6 +4720,7 @@
     </row>
     <row r="356" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A356" s="3"/>
+      <c r="I356"/>
       <c r="K356" s="21"/>
       <c r="L356" s="18"/>
       <c r="M356" s="18"/>
@@ -4187,6 +4729,7 @@
     </row>
     <row r="357" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A357" s="3"/>
+      <c r="I357"/>
       <c r="K357" s="21"/>
       <c r="L357" s="18"/>
       <c r="M357" s="18"/>
@@ -4195,6 +4738,7 @@
     </row>
     <row r="358" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A358" s="3"/>
+      <c r="I358"/>
       <c r="K358" s="21"/>
       <c r="L358" s="18"/>
       <c r="M358" s="18"/>
@@ -4203,6 +4747,7 @@
     </row>
     <row r="359" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A359" s="3"/>
+      <c r="I359"/>
       <c r="K359" s="21"/>
       <c r="L359" s="18"/>
       <c r="M359" s="18"/>
@@ -4211,6 +4756,7 @@
     </row>
     <row r="360" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A360" s="3"/>
+      <c r="I360"/>
       <c r="K360" s="21"/>
       <c r="L360" s="18"/>
       <c r="M360" s="18"/>
@@ -4219,6 +4765,7 @@
     </row>
     <row r="361" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A361" s="3"/>
+      <c r="I361"/>
       <c r="K361" s="21"/>
       <c r="L361" s="18"/>
       <c r="M361" s="18"/>
@@ -4227,6 +4774,7 @@
     </row>
     <row r="362" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A362" s="3"/>
+      <c r="I362"/>
       <c r="K362" s="21"/>
       <c r="L362" s="18"/>
       <c r="M362" s="18"/>
@@ -4235,6 +4783,7 @@
     </row>
     <row r="363" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A363" s="3"/>
+      <c r="I363"/>
       <c r="K363" s="21"/>
       <c r="L363" s="18"/>
       <c r="M363" s="18"/>
@@ -4243,6 +4792,7 @@
     </row>
     <row r="364" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A364" s="3"/>
+      <c r="I364"/>
       <c r="K364" s="21"/>
       <c r="L364" s="18"/>
       <c r="M364" s="18"/>
@@ -4251,6 +4801,7 @@
     </row>
     <row r="365" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A365" s="3"/>
+      <c r="I365"/>
       <c r="K365" s="21"/>
       <c r="L365" s="18"/>
       <c r="M365" s="18"/>
@@ -4259,6 +4810,7 @@
     </row>
     <row r="366" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A366" s="3"/>
+      <c r="I366"/>
       <c r="K366" s="21"/>
       <c r="L366" s="18"/>
       <c r="M366" s="18"/>
@@ -4267,6 +4819,7 @@
     </row>
     <row r="367" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A367" s="3"/>
+      <c r="I367"/>
       <c r="K367" s="21"/>
       <c r="L367" s="18"/>
       <c r="M367" s="18"/>
@@ -4275,6 +4828,7 @@
     </row>
     <row r="368" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A368" s="3"/>
+      <c r="I368"/>
       <c r="K368" s="21"/>
       <c r="L368" s="18"/>
       <c r="M368" s="18"/>
@@ -4283,6 +4837,7 @@
     </row>
     <row r="369" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A369" s="3"/>
+      <c r="I369"/>
       <c r="K369" s="21"/>
       <c r="L369" s="18"/>
       <c r="M369" s="18"/>
@@ -4291,6 +4846,7 @@
     </row>
     <row r="370" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A370" s="3"/>
+      <c r="I370"/>
       <c r="K370" s="21"/>
       <c r="L370" s="18"/>
       <c r="M370" s="18"/>
@@ -4299,6 +4855,7 @@
     </row>
     <row r="371" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A371" s="3"/>
+      <c r="I371"/>
       <c r="K371" s="21"/>
       <c r="L371" s="18"/>
       <c r="M371" s="18"/>
@@ -4307,6 +4864,7 @@
     </row>
     <row r="372" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A372" s="3"/>
+      <c r="I372"/>
       <c r="K372" s="21"/>
       <c r="L372" s="18"/>
       <c r="M372" s="18"/>
@@ -4315,6 +4873,7 @@
     </row>
     <row r="373" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A373" s="3"/>
+      <c r="I373"/>
       <c r="K373" s="21"/>
       <c r="L373" s="18"/>
       <c r="M373" s="18"/>
@@ -4323,6 +4882,7 @@
     </row>
     <row r="374" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A374" s="3"/>
+      <c r="I374"/>
       <c r="K374" s="21"/>
       <c r="L374" s="18"/>
       <c r="M374" s="18"/>
@@ -4331,6 +4891,7 @@
     </row>
     <row r="375" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A375" s="3"/>
+      <c r="I375"/>
       <c r="K375" s="21"/>
       <c r="L375" s="18"/>
       <c r="M375" s="18"/>
@@ -4339,6 +4900,7 @@
     </row>
     <row r="376" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A376" s="3"/>
+      <c r="I376"/>
       <c r="K376" s="21"/>
       <c r="L376" s="18"/>
       <c r="M376" s="18"/>
@@ -4347,6 +4909,7 @@
     </row>
     <row r="377" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A377" s="3"/>
+      <c r="I377"/>
       <c r="K377" s="21"/>
       <c r="L377" s="18"/>
       <c r="M377" s="18"/>
@@ -4355,6 +4918,7 @@
     </row>
     <row r="378" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A378" s="3"/>
+      <c r="I378"/>
       <c r="K378" s="21"/>
       <c r="L378" s="18"/>
       <c r="M378" s="18"/>
@@ -4363,6 +4927,7 @@
     </row>
     <row r="379" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A379" s="3"/>
+      <c r="I379"/>
       <c r="K379" s="21"/>
       <c r="L379" s="18"/>
       <c r="M379" s="18"/>
@@ -4371,6 +4936,7 @@
     </row>
     <row r="380" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A380" s="3"/>
+      <c r="I380"/>
       <c r="K380" s="21"/>
       <c r="L380" s="18"/>
       <c r="M380" s="18"/>
@@ -4379,6 +4945,7 @@
     </row>
     <row r="381" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A381" s="3"/>
+      <c r="I381"/>
       <c r="K381" s="21"/>
       <c r="L381" s="18"/>
       <c r="M381" s="18"/>
@@ -4387,6 +4954,7 @@
     </row>
     <row r="382" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A382" s="3"/>
+      <c r="I382"/>
       <c r="K382" s="21"/>
       <c r="L382" s="18"/>
       <c r="M382" s="18"/>
@@ -4395,6 +4963,7 @@
     </row>
     <row r="383" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A383" s="3"/>
+      <c r="I383"/>
       <c r="K383" s="21"/>
       <c r="L383" s="18"/>
       <c r="M383" s="18"/>
@@ -4403,6 +4972,7 @@
     </row>
     <row r="384" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A384" s="3"/>
+      <c r="I384"/>
       <c r="K384" s="21"/>
       <c r="L384" s="18"/>
       <c r="M384" s="18"/>
@@ -4411,6 +4981,7 @@
     </row>
     <row r="385" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A385" s="3"/>
+      <c r="I385"/>
       <c r="K385" s="21"/>
       <c r="L385" s="18"/>
       <c r="M385" s="18"/>
@@ -4419,6 +4990,7 @@
     </row>
     <row r="386" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A386" s="3"/>
+      <c r="I386"/>
       <c r="K386" s="21"/>
       <c r="L386" s="18"/>
       <c r="M386" s="18"/>
@@ -4427,6 +4999,7 @@
     </row>
     <row r="387" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A387" s="3"/>
+      <c r="I387"/>
       <c r="K387" s="21"/>
       <c r="L387" s="18"/>
       <c r="M387" s="18"/>
@@ -4435,6 +5008,7 @@
     </row>
     <row r="388" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A388" s="3"/>
+      <c r="I388"/>
       <c r="K388" s="21"/>
       <c r="L388" s="18"/>
       <c r="M388" s="18"/>
@@ -4443,6 +5017,7 @@
     </row>
     <row r="389" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A389" s="3"/>
+      <c r="I389"/>
       <c r="K389" s="21"/>
       <c r="L389" s="18"/>
       <c r="M389" s="18"/>
@@ -4451,6 +5026,7 @@
     </row>
     <row r="390" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A390" s="3"/>
+      <c r="I390"/>
       <c r="K390" s="21"/>
       <c r="L390" s="18"/>
       <c r="M390" s="18"/>
@@ -4459,6 +5035,7 @@
     </row>
     <row r="391" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A391" s="3"/>
+      <c r="I391"/>
       <c r="K391" s="21"/>
       <c r="L391" s="18"/>
       <c r="M391" s="18"/>
@@ -4467,6 +5044,7 @@
     </row>
     <row r="392" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A392" s="3"/>
+      <c r="I392"/>
       <c r="K392" s="21"/>
       <c r="L392" s="18"/>
       <c r="M392" s="18"/>
@@ -4475,6 +5053,7 @@
     </row>
     <row r="393" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A393" s="3"/>
+      <c r="I393"/>
       <c r="K393" s="21"/>
       <c r="L393" s="18"/>
       <c r="M393" s="18"/>
@@ -4483,6 +5062,7 @@
     </row>
     <row r="394" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A394" s="3"/>
+      <c r="I394"/>
       <c r="K394" s="21"/>
       <c r="L394" s="18"/>
       <c r="M394" s="18"/>
@@ -4491,6 +5071,7 @@
     </row>
     <row r="395" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A395" s="3"/>
+      <c r="I395"/>
       <c r="K395" s="21"/>
       <c r="L395" s="18"/>
       <c r="M395" s="18"/>
@@ -4499,6 +5080,7 @@
     </row>
     <row r="396" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A396" s="3"/>
+      <c r="I396"/>
       <c r="K396" s="21"/>
       <c r="L396" s="18"/>
       <c r="M396" s="18"/>
@@ -4507,6 +5089,7 @@
     </row>
     <row r="397" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A397" s="3"/>
+      <c r="I397"/>
       <c r="K397" s="21"/>
       <c r="L397" s="18"/>
       <c r="M397" s="18"/>
@@ -4515,6 +5098,7 @@
     </row>
     <row r="398" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A398" s="3"/>
+      <c r="I398"/>
       <c r="K398" s="21"/>
       <c r="L398" s="18"/>
       <c r="M398" s="18"/>
@@ -4523,6 +5107,7 @@
     </row>
     <row r="399" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A399" s="3"/>
+      <c r="I399"/>
       <c r="K399" s="21"/>
       <c r="L399" s="18"/>
       <c r="M399" s="18"/>
@@ -4531,6 +5116,7 @@
     </row>
     <row r="400" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A400" s="3"/>
+      <c r="I400"/>
       <c r="K400" s="21"/>
       <c r="L400" s="18"/>
       <c r="M400" s="18"/>
@@ -4539,6 +5125,7 @@
     </row>
     <row r="401" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A401" s="3"/>
+      <c r="I401"/>
       <c r="K401" s="21"/>
       <c r="L401" s="18"/>
       <c r="M401" s="18"/>
@@ -4547,6 +5134,7 @@
     </row>
     <row r="402" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A402" s="3"/>
+      <c r="I402"/>
       <c r="K402" s="21"/>
       <c r="L402" s="18"/>
       <c r="M402" s="18"/>
@@ -4555,6 +5143,7 @@
     </row>
     <row r="403" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A403" s="3"/>
+      <c r="I403"/>
       <c r="K403" s="21"/>
       <c r="L403" s="18"/>
       <c r="M403" s="18"/>
@@ -4563,6 +5152,7 @@
     </row>
     <row r="404" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A404" s="3"/>
+      <c r="I404"/>
       <c r="K404" s="21"/>
       <c r="L404" s="18"/>
       <c r="M404" s="18"/>
@@ -4571,6 +5161,7 @@
     </row>
     <row r="405" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A405" s="3"/>
+      <c r="I405"/>
       <c r="K405" s="21"/>
       <c r="L405" s="18"/>
       <c r="M405" s="18"/>
@@ -4579,6 +5170,7 @@
     </row>
     <row r="406" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A406" s="3"/>
+      <c r="I406"/>
       <c r="K406" s="21"/>
       <c r="L406" s="18"/>
       <c r="M406" s="18"/>
@@ -4587,6 +5179,7 @@
     </row>
     <row r="407" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A407" s="3"/>
+      <c r="I407"/>
       <c r="K407" s="21"/>
       <c r="L407" s="18"/>
       <c r="M407" s="18"/>
@@ -4595,6 +5188,7 @@
     </row>
     <row r="408" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A408" s="3"/>
+      <c r="I408"/>
       <c r="K408" s="21"/>
       <c r="L408" s="18"/>
       <c r="M408" s="18"/>
@@ -4603,6 +5197,7 @@
     </row>
     <row r="409" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A409" s="3"/>
+      <c r="I409"/>
       <c r="K409" s="21"/>
       <c r="L409" s="18"/>
       <c r="M409" s="18"/>
@@ -4611,6 +5206,7 @@
     </row>
     <row r="410" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A410" s="3"/>
+      <c r="I410"/>
       <c r="K410" s="21"/>
       <c r="L410" s="18"/>
       <c r="M410" s="18"/>
@@ -4619,6 +5215,7 @@
     </row>
     <row r="411" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A411" s="3"/>
+      <c r="I411"/>
       <c r="K411" s="21"/>
       <c r="L411" s="18"/>
       <c r="M411" s="18"/>
@@ -4627,6 +5224,7 @@
     </row>
     <row r="412" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A412" s="3"/>
+      <c r="I412"/>
       <c r="K412" s="21"/>
       <c r="L412" s="18"/>
       <c r="M412" s="18"/>
@@ -4635,6 +5233,7 @@
     </row>
     <row r="413" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A413" s="3"/>
+      <c r="I413"/>
       <c r="K413" s="21"/>
       <c r="L413" s="18"/>
       <c r="M413" s="18"/>
@@ -4643,6 +5242,7 @@
     </row>
     <row r="414" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A414" s="3"/>
+      <c r="I414"/>
       <c r="K414" s="21"/>
       <c r="L414" s="18"/>
       <c r="M414" s="18"/>
@@ -4651,6 +5251,7 @@
     </row>
     <row r="415" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A415" s="3"/>
+      <c r="I415"/>
       <c r="K415" s="21"/>
       <c r="L415" s="18"/>
       <c r="M415" s="18"/>
@@ -4659,6 +5260,7 @@
     </row>
     <row r="416" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A416" s="3"/>
+      <c r="I416"/>
       <c r="K416" s="21"/>
       <c r="L416" s="18"/>
       <c r="M416" s="18"/>
@@ -4667,6 +5269,7 @@
     </row>
     <row r="417" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A417" s="3"/>
+      <c r="I417"/>
       <c r="K417" s="21"/>
       <c r="L417" s="18"/>
       <c r="M417" s="18"/>
@@ -4675,6 +5278,7 @@
     </row>
     <row r="418" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A418" s="3"/>
+      <c r="I418"/>
       <c r="K418" s="21"/>
       <c r="L418" s="18"/>
       <c r="M418" s="18"/>
@@ -4683,6 +5287,7 @@
     </row>
     <row r="419" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A419" s="3"/>
+      <c r="I419"/>
       <c r="K419" s="21"/>
       <c r="L419" s="18"/>
       <c r="M419" s="18"/>
@@ -4691,6 +5296,7 @@
     </row>
     <row r="420" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A420" s="3"/>
+      <c r="I420"/>
       <c r="K420" s="21"/>
       <c r="L420" s="18"/>
       <c r="M420" s="18"/>
@@ -4699,6 +5305,7 @@
     </row>
     <row r="421" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A421" s="3"/>
+      <c r="I421"/>
       <c r="K421" s="21"/>
       <c r="L421" s="18"/>
       <c r="M421" s="18"/>
@@ -4707,6 +5314,7 @@
     </row>
     <row r="422" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A422" s="3"/>
+      <c r="I422"/>
       <c r="K422" s="21"/>
       <c r="L422" s="18"/>
       <c r="M422" s="18"/>
@@ -4715,6 +5323,7 @@
     </row>
     <row r="423" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A423" s="3"/>
+      <c r="I423"/>
       <c r="K423" s="21"/>
       <c r="L423" s="18"/>
       <c r="M423" s="18"/>
@@ -4723,6 +5332,7 @@
     </row>
     <row r="424" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A424" s="3"/>
+      <c r="I424"/>
       <c r="K424" s="21"/>
       <c r="L424" s="18"/>
       <c r="M424" s="18"/>
@@ -4731,6 +5341,7 @@
     </row>
     <row r="425" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A425" s="3"/>
+      <c r="I425"/>
       <c r="K425" s="21"/>
       <c r="L425" s="18"/>
       <c r="M425" s="18"/>
@@ -4739,6 +5350,7 @@
     </row>
     <row r="426" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A426" s="3"/>
+      <c r="I426"/>
       <c r="K426" s="21"/>
       <c r="L426" s="18"/>
       <c r="M426" s="18"/>
@@ -4747,6 +5359,7 @@
     </row>
     <row r="427" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A427" s="3"/>
+      <c r="I427"/>
       <c r="K427" s="21"/>
       <c r="L427" s="18"/>
       <c r="M427" s="18"/>
@@ -4755,6 +5368,7 @@
     </row>
     <row r="428" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A428" s="3"/>
+      <c r="I428"/>
       <c r="K428" s="21"/>
       <c r="L428" s="18"/>
       <c r="M428" s="18"/>
@@ -4763,6 +5377,7 @@
     </row>
     <row r="429" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A429" s="3"/>
+      <c r="I429"/>
       <c r="K429" s="21"/>
       <c r="L429" s="18"/>
       <c r="M429" s="18"/>
@@ -4771,6 +5386,7 @@
     </row>
     <row r="430" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A430" s="3"/>
+      <c r="I430"/>
       <c r="K430" s="21"/>
       <c r="L430" s="18"/>
       <c r="M430" s="18"/>
@@ -4779,6 +5395,7 @@
     </row>
     <row r="431" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A431" s="3"/>
+      <c r="I431"/>
       <c r="K431" s="21"/>
       <c r="L431" s="18"/>
       <c r="M431" s="18"/>
@@ -4787,6 +5404,7 @@
     </row>
     <row r="432" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A432" s="3"/>
+      <c r="I432"/>
       <c r="K432" s="21"/>
       <c r="L432" s="18"/>
       <c r="M432" s="18"/>
@@ -4795,6 +5413,7 @@
     </row>
     <row r="433" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A433" s="3"/>
+      <c r="I433"/>
       <c r="K433" s="21"/>
       <c r="L433" s="18"/>
       <c r="M433" s="18"/>
@@ -4803,6 +5422,7 @@
     </row>
     <row r="434" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A434" s="3"/>
+      <c r="I434"/>
       <c r="K434" s="21"/>
       <c r="L434" s="18"/>
       <c r="M434" s="18"/>
@@ -4811,6 +5431,7 @@
     </row>
     <row r="435" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A435" s="3"/>
+      <c r="I435"/>
       <c r="K435" s="21"/>
       <c r="L435" s="18"/>
       <c r="M435" s="18"/>
@@ -4819,6 +5440,7 @@
     </row>
     <row r="436" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A436" s="3"/>
+      <c r="I436"/>
       <c r="K436" s="21"/>
       <c r="L436" s="18"/>
       <c r="M436" s="18"/>
@@ -4827,6 +5449,7 @@
     </row>
     <row r="437" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A437" s="3"/>
+      <c r="I437"/>
       <c r="K437" s="21"/>
       <c r="L437" s="18"/>
       <c r="M437" s="18"/>
@@ -4835,6 +5458,7 @@
     </row>
     <row r="438" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A438" s="3"/>
+      <c r="I438"/>
       <c r="K438" s="21"/>
       <c r="L438" s="18"/>
       <c r="M438" s="18"/>
@@ -4843,6 +5467,7 @@
     </row>
     <row r="439" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A439" s="3"/>
+      <c r="I439"/>
       <c r="K439" s="21"/>
       <c r="L439" s="18"/>
       <c r="M439" s="18"/>
@@ -4851,6 +5476,7 @@
     </row>
     <row r="440" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A440" s="3"/>
+      <c r="I440"/>
       <c r="K440" s="21"/>
       <c r="L440" s="18"/>
       <c r="M440" s="18"/>
@@ -4859,6 +5485,7 @@
     </row>
     <row r="441" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A441" s="3"/>
+      <c r="I441"/>
       <c r="K441" s="21"/>
       <c r="L441" s="18"/>
       <c r="M441" s="18"/>
@@ -4867,6 +5494,7 @@
     </row>
     <row r="442" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A442" s="3"/>
+      <c r="I442"/>
       <c r="K442" s="21"/>
       <c r="L442" s="18"/>
       <c r="M442" s="18"/>
@@ -4875,6 +5503,7 @@
     </row>
     <row r="443" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A443" s="3"/>
+      <c r="I443"/>
       <c r="K443" s="21"/>
       <c r="L443" s="18"/>
       <c r="M443" s="18"/>
@@ -4883,6 +5512,7 @@
     </row>
     <row r="444" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A444" s="3"/>
+      <c r="I444"/>
       <c r="K444" s="21"/>
       <c r="L444" s="18"/>
       <c r="M444" s="18"/>
@@ -4891,6 +5521,7 @@
     </row>
     <row r="445" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A445" s="3"/>
+      <c r="I445"/>
       <c r="K445" s="21"/>
       <c r="L445" s="18"/>
       <c r="M445" s="18"/>
@@ -4899,6 +5530,7 @@
     </row>
     <row r="446" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A446" s="3"/>
+      <c r="I446"/>
       <c r="K446" s="21"/>
       <c r="L446" s="18"/>
       <c r="M446" s="18"/>
@@ -4907,6 +5539,7 @@
     </row>
     <row r="447" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A447" s="3"/>
+      <c r="I447"/>
       <c r="K447" s="21"/>
       <c r="L447" s="18"/>
       <c r="M447" s="18"/>
@@ -4915,6 +5548,7 @@
     </row>
     <row r="448" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A448" s="3"/>
+      <c r="I448"/>
       <c r="K448" s="21"/>
       <c r="L448" s="18"/>
       <c r="M448" s="18"/>
@@ -4923,6 +5557,7 @@
     </row>
     <row r="449" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A449" s="3"/>
+      <c r="I449"/>
       <c r="K449" s="21"/>
       <c r="L449" s="18"/>
       <c r="M449" s="18"/>
@@ -4931,6 +5566,7 @@
     </row>
     <row r="450" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A450" s="3"/>
+      <c r="I450"/>
       <c r="K450" s="21"/>
       <c r="L450" s="18"/>
       <c r="M450" s="18"/>
@@ -4939,6 +5575,7 @@
     </row>
     <row r="451" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A451" s="3"/>
+      <c r="I451"/>
       <c r="K451" s="21"/>
       <c r="L451" s="18"/>
       <c r="M451" s="18"/>
@@ -4947,6 +5584,7 @@
     </row>
     <row r="452" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A452" s="3"/>
+      <c r="I452"/>
       <c r="K452" s="21"/>
       <c r="L452" s="18"/>
       <c r="M452" s="18"/>
@@ -4955,6 +5593,7 @@
     </row>
     <row r="453" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A453" s="3"/>
+      <c r="I453"/>
       <c r="K453" s="21"/>
       <c r="L453" s="18"/>
       <c r="M453" s="18"/>
@@ -4963,6 +5602,7 @@
     </row>
     <row r="454" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A454" s="3"/>
+      <c r="I454"/>
       <c r="K454" s="21"/>
       <c r="L454" s="18"/>
       <c r="M454" s="18"/>
@@ -4971,6 +5611,7 @@
     </row>
     <row r="455" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A455" s="3"/>
+      <c r="I455"/>
       <c r="K455" s="21"/>
       <c r="L455" s="18"/>
       <c r="M455" s="18"/>
@@ -4979,6 +5620,7 @@
     </row>
     <row r="456" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A456" s="3"/>
+      <c r="I456"/>
       <c r="K456" s="21"/>
       <c r="L456" s="18"/>
       <c r="M456" s="18"/>
@@ -4987,6 +5629,7 @@
     </row>
     <row r="457" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A457" s="3"/>
+      <c r="I457"/>
       <c r="K457" s="21"/>
       <c r="L457" s="18"/>
       <c r="M457" s="18"/>
@@ -4995,6 +5638,7 @@
     </row>
     <row r="458" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A458" s="3"/>
+      <c r="I458"/>
       <c r="K458" s="21"/>
       <c r="L458" s="18"/>
       <c r="M458" s="18"/>
@@ -5003,6 +5647,7 @@
     </row>
     <row r="459" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A459" s="3"/>
+      <c r="I459"/>
       <c r="K459" s="21"/>
       <c r="L459" s="18"/>
       <c r="M459" s="18"/>
@@ -5011,6 +5656,7 @@
     </row>
     <row r="460" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A460" s="3"/>
+      <c r="I460"/>
       <c r="K460" s="21"/>
       <c r="L460" s="18"/>
       <c r="M460" s="18"/>
@@ -5019,6 +5665,7 @@
     </row>
     <row r="461" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A461" s="3"/>
+      <c r="I461"/>
       <c r="K461" s="21"/>
       <c r="L461" s="18"/>
       <c r="M461" s="18"/>
@@ -5027,6 +5674,7 @@
     </row>
     <row r="462" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A462" s="3"/>
+      <c r="I462"/>
       <c r="K462" s="21"/>
       <c r="L462" s="18"/>
       <c r="M462" s="18"/>
@@ -5035,6 +5683,7 @@
     </row>
     <row r="463" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A463" s="3"/>
+      <c r="I463"/>
       <c r="K463" s="21"/>
       <c r="L463" s="18"/>
       <c r="M463" s="18"/>
@@ -5043,6 +5692,7 @@
     </row>
     <row r="464" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A464" s="3"/>
+      <c r="I464"/>
       <c r="K464" s="21"/>
       <c r="L464" s="18"/>
       <c r="M464" s="18"/>
@@ -5051,6 +5701,7 @@
     </row>
     <row r="465" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A465" s="3"/>
+      <c r="I465"/>
       <c r="K465" s="21"/>
       <c r="L465" s="18"/>
       <c r="M465" s="18"/>
@@ -5059,6 +5710,7 @@
     </row>
     <row r="466" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A466" s="3"/>
+      <c r="I466"/>
       <c r="K466" s="21"/>
       <c r="L466" s="18"/>
       <c r="M466" s="18"/>
@@ -5067,6 +5719,7 @@
     </row>
     <row r="467" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A467" s="3"/>
+      <c r="I467"/>
       <c r="K467" s="21"/>
       <c r="L467" s="18"/>
       <c r="M467" s="18"/>
@@ -5075,6 +5728,7 @@
     </row>
     <row r="468" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A468" s="3"/>
+      <c r="I468"/>
       <c r="K468" s="21"/>
       <c r="L468" s="18"/>
       <c r="M468" s="18"/>
@@ -5083,6 +5737,7 @@
     </row>
     <row r="469" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A469" s="3"/>
+      <c r="I469"/>
       <c r="K469" s="21"/>
       <c r="L469" s="18"/>
       <c r="M469" s="18"/>
@@ -5091,6 +5746,7 @@
     </row>
     <row r="470" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A470" s="3"/>
+      <c r="I470"/>
       <c r="K470" s="21"/>
       <c r="L470" s="18"/>
       <c r="M470" s="18"/>
@@ -5099,6 +5755,7 @@
     </row>
     <row r="471" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A471" s="3"/>
+      <c r="I471"/>
       <c r="K471" s="21"/>
       <c r="L471" s="18"/>
       <c r="M471" s="18"/>
@@ -5107,6 +5764,7 @@
     </row>
     <row r="472" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A472" s="3"/>
+      <c r="I472"/>
       <c r="K472" s="21"/>
       <c r="L472" s="18"/>
       <c r="M472" s="18"/>
@@ -5115,6 +5773,7 @@
     </row>
     <row r="473" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A473" s="3"/>
+      <c r="I473"/>
       <c r="K473" s="21"/>
       <c r="L473" s="18"/>
       <c r="M473" s="18"/>
@@ -5123,6 +5782,7 @@
     </row>
     <row r="474" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A474" s="3"/>
+      <c r="I474"/>
       <c r="K474" s="21"/>
       <c r="L474" s="18"/>
       <c r="M474" s="18"/>
@@ -5131,6 +5791,7 @@
     </row>
     <row r="475" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A475" s="3"/>
+      <c r="I475"/>
       <c r="K475" s="21"/>
       <c r="L475" s="18"/>
       <c r="M475" s="18"/>
@@ -5139,6 +5800,7 @@
     </row>
     <row r="476" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A476" s="3"/>
+      <c r="I476"/>
       <c r="K476" s="21"/>
       <c r="L476" s="18"/>
       <c r="M476" s="18"/>
@@ -5147,6 +5809,7 @@
     </row>
     <row r="477" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A477" s="3"/>
+      <c r="I477"/>
       <c r="K477" s="21"/>
       <c r="L477" s="18"/>
       <c r="M477" s="18"/>
@@ -5155,6 +5818,7 @@
     </row>
     <row r="478" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A478" s="3"/>
+      <c r="I478"/>
       <c r="K478" s="21"/>
       <c r="L478" s="18"/>
       <c r="M478" s="18"/>
@@ -5163,6 +5827,7 @@
     </row>
     <row r="479" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A479" s="3"/>
+      <c r="I479"/>
       <c r="K479" s="21"/>
       <c r="L479" s="18"/>
       <c r="M479" s="18"/>
@@ -5171,6 +5836,7 @@
     </row>
     <row r="480" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A480" s="3"/>
+      <c r="I480"/>
       <c r="K480" s="21"/>
       <c r="L480" s="18"/>
       <c r="M480" s="18"/>
@@ -5179,6 +5845,7 @@
     </row>
     <row r="481" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A481" s="3"/>
+      <c r="I481"/>
       <c r="K481" s="21"/>
       <c r="L481" s="18"/>
       <c r="M481" s="18"/>
@@ -5187,6 +5854,7 @@
     </row>
     <row r="482" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A482" s="3"/>
+      <c r="I482"/>
       <c r="K482" s="21"/>
       <c r="L482" s="18"/>
       <c r="M482" s="18"/>
@@ -5195,6 +5863,7 @@
     </row>
     <row r="483" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A483" s="3"/>
+      <c r="I483"/>
       <c r="K483" s="21"/>
       <c r="L483" s="18"/>
       <c r="M483" s="18"/>
@@ -5203,6 +5872,7 @@
     </row>
     <row r="484" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A484" s="3"/>
+      <c r="I484"/>
       <c r="K484" s="21"/>
       <c r="L484" s="18"/>
       <c r="M484" s="18"/>
@@ -5211,6 +5881,7 @@
     </row>
     <row r="485" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A485" s="3"/>
+      <c r="I485"/>
       <c r="K485" s="21"/>
       <c r="L485" s="18"/>
       <c r="M485" s="18"/>
@@ -5219,6 +5890,7 @@
     </row>
     <row r="486" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A486" s="3"/>
+      <c r="I486"/>
       <c r="K486" s="21"/>
       <c r="L486" s="18"/>
       <c r="M486" s="18"/>
@@ -5227,6 +5899,7 @@
     </row>
     <row r="487" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A487" s="3"/>
+      <c r="I487"/>
       <c r="K487" s="21"/>
       <c r="L487" s="18"/>
       <c r="M487" s="18"/>
@@ -5235,6 +5908,7 @@
     </row>
     <row r="488" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A488" s="3"/>
+      <c r="I488"/>
       <c r="K488" s="21"/>
       <c r="L488" s="18"/>
       <c r="M488" s="18"/>
@@ -5243,6 +5917,7 @@
     </row>
     <row r="489" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A489" s="3"/>
+      <c r="I489"/>
       <c r="K489" s="21"/>
       <c r="L489" s="18"/>
       <c r="M489" s="18"/>
@@ -5251,6 +5926,7 @@
     </row>
     <row r="490" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A490" s="3"/>
+      <c r="I490"/>
       <c r="K490" s="21"/>
       <c r="L490" s="18"/>
       <c r="M490" s="18"/>
@@ -5259,6 +5935,7 @@
     </row>
     <row r="491" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A491" s="3"/>
+      <c r="I491"/>
       <c r="K491" s="21"/>
       <c r="L491" s="18"/>
       <c r="M491" s="18"/>
@@ -5267,6 +5944,7 @@
     </row>
     <row r="492" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A492" s="3"/>
+      <c r="I492"/>
       <c r="K492" s="21"/>
       <c r="L492" s="18"/>
       <c r="M492" s="18"/>
@@ -5275,6 +5953,7 @@
     </row>
     <row r="493" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A493" s="3"/>
+      <c r="I493"/>
       <c r="K493" s="21"/>
       <c r="L493" s="18"/>
       <c r="M493" s="18"/>
@@ -5283,6 +5962,7 @@
     </row>
     <row r="494" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A494" s="3"/>
+      <c r="I494"/>
       <c r="K494" s="21"/>
       <c r="L494" s="18"/>
       <c r="M494" s="18"/>
@@ -5291,6 +5971,7 @@
     </row>
     <row r="495" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A495" s="3"/>
+      <c r="I495"/>
       <c r="K495" s="21"/>
       <c r="L495" s="18"/>
       <c r="M495" s="18"/>
@@ -5299,6 +5980,7 @@
     </row>
     <row r="496" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A496" s="3"/>
+      <c r="I496"/>
       <c r="K496" s="21"/>
       <c r="L496" s="18"/>
       <c r="M496" s="18"/>
@@ -5307,6 +5989,7 @@
     </row>
     <row r="497" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A497" s="3"/>
+      <c r="I497"/>
       <c r="K497" s="21"/>
       <c r="L497" s="18"/>
       <c r="M497" s="18"/>
@@ -5315,6 +5998,7 @@
     </row>
     <row r="498" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A498" s="3"/>
+      <c r="I498"/>
       <c r="K498" s="21"/>
       <c r="L498" s="18"/>
       <c r="M498" s="18"/>
@@ -5323,6 +6007,7 @@
     </row>
     <row r="499" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A499" s="3"/>
+      <c r="I499"/>
       <c r="K499" s="21"/>
       <c r="L499" s="18"/>
       <c r="M499" s="18"/>
@@ -5331,6 +6016,7 @@
     </row>
     <row r="500" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A500" s="3"/>
+      <c r="I500"/>
       <c r="K500" s="21"/>
       <c r="L500" s="18"/>
       <c r="M500" s="18"/>
@@ -5339,6 +6025,7 @@
     </row>
     <row r="501" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A501" s="3"/>
+      <c r="I501"/>
       <c r="K501" s="21"/>
       <c r="L501" s="18"/>
       <c r="M501" s="18"/>
@@ -5347,6 +6034,7 @@
     </row>
     <row r="502" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A502" s="3"/>
+      <c r="I502"/>
       <c r="K502" s="21"/>
       <c r="L502" s="18"/>
       <c r="M502" s="18"/>
@@ -5355,6 +6043,7 @@
     </row>
     <row r="503" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A503" s="3"/>
+      <c r="I503"/>
       <c r="K503" s="21"/>
       <c r="L503" s="18"/>
       <c r="M503" s="18"/>
@@ -5363,6 +6052,7 @@
     </row>
     <row r="504" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A504" s="3"/>
+      <c r="I504"/>
       <c r="K504" s="21"/>
       <c r="L504" s="18"/>
       <c r="M504" s="18"/>
@@ -5371,6 +6061,7 @@
     </row>
     <row r="505" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A505" s="3"/>
+      <c r="I505"/>
       <c r="K505" s="21"/>
       <c r="L505" s="18"/>
       <c r="M505" s="18"/>
@@ -5379,6 +6070,7 @@
     </row>
     <row r="506" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A506" s="3"/>
+      <c r="I506"/>
       <c r="K506" s="21"/>
       <c r="L506" s="18"/>
       <c r="M506" s="18"/>
@@ -5387,6 +6079,7 @@
     </row>
     <row r="507" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A507" s="3"/>
+      <c r="I507"/>
       <c r="K507" s="21"/>
       <c r="L507" s="18"/>
       <c r="M507" s="18"/>
@@ -5395,6 +6088,7 @@
     </row>
     <row r="508" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A508" s="3"/>
+      <c r="I508"/>
       <c r="K508" s="21"/>
       <c r="L508" s="18"/>
       <c r="M508" s="18"/>
@@ -5403,6 +6097,7 @@
     </row>
     <row r="509" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A509" s="3"/>
+      <c r="I509"/>
       <c r="K509" s="21"/>
       <c r="L509" s="18"/>
       <c r="M509" s="18"/>
@@ -5411,6 +6106,7 @@
     </row>
     <row r="510" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A510" s="3"/>
+      <c r="I510"/>
       <c r="K510" s="21"/>
       <c r="L510" s="18"/>
       <c r="M510" s="18"/>
@@ -5419,6 +6115,7 @@
     </row>
     <row r="511" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A511" s="3"/>
+      <c r="I511"/>
       <c r="K511" s="21"/>
       <c r="L511" s="18"/>
       <c r="M511" s="18"/>
@@ -5427,6 +6124,7 @@
     </row>
     <row r="512" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A512" s="3"/>
+      <c r="I512"/>
       <c r="K512" s="21"/>
       <c r="L512" s="18"/>
       <c r="M512" s="18"/>
@@ -5435,6 +6133,7 @@
     </row>
     <row r="513" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A513" s="3"/>
+      <c r="I513"/>
       <c r="K513" s="21"/>
       <c r="L513" s="18"/>
       <c r="M513" s="18"/>
@@ -5443,6 +6142,7 @@
     </row>
     <row r="514" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A514" s="3"/>
+      <c r="I514"/>
       <c r="K514" s="21"/>
       <c r="L514" s="18"/>
       <c r="M514" s="18"/>
@@ -5451,6 +6151,7 @@
     </row>
     <row r="515" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A515" s="3"/>
+      <c r="I515"/>
       <c r="K515" s="21"/>
       <c r="L515" s="18"/>
       <c r="M515" s="18"/>
@@ -5459,6 +6160,7 @@
     </row>
     <row r="516" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A516" s="3"/>
+      <c r="I516"/>
       <c r="K516" s="21"/>
       <c r="L516" s="18"/>
       <c r="M516" s="18"/>
@@ -5467,6 +6169,7 @@
     </row>
     <row r="517" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A517" s="3"/>
+      <c r="I517"/>
       <c r="K517" s="21"/>
       <c r="L517" s="18"/>
       <c r="M517" s="18"/>
@@ -5475,6 +6178,7 @@
     </row>
     <row r="518" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A518" s="3"/>
+      <c r="I518"/>
       <c r="K518" s="21"/>
       <c r="L518" s="18"/>
       <c r="M518" s="18"/>
@@ -5483,6 +6187,7 @@
     </row>
     <row r="519" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A519" s="3"/>
+      <c r="I519"/>
       <c r="K519" s="21"/>
       <c r="L519" s="18"/>
       <c r="M519" s="18"/>
@@ -5491,6 +6196,7 @@
     </row>
     <row r="520" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A520" s="3"/>
+      <c r="I520"/>
       <c r="K520" s="21"/>
       <c r="L520" s="18"/>
       <c r="M520" s="18"/>
@@ -5499,6 +6205,7 @@
     </row>
     <row r="521" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A521" s="3"/>
+      <c r="I521"/>
       <c r="K521" s="21"/>
       <c r="L521" s="18"/>
       <c r="M521" s="18"/>
@@ -5507,6 +6214,7 @@
     </row>
     <row r="522" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A522" s="3"/>
+      <c r="I522"/>
       <c r="K522" s="21"/>
       <c r="L522" s="18"/>
       <c r="M522" s="18"/>
@@ -5515,6 +6223,7 @@
     </row>
     <row r="523" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A523" s="3"/>
+      <c r="I523"/>
       <c r="K523" s="21"/>
       <c r="L523" s="18"/>
       <c r="M523" s="18"/>
@@ -5523,6 +6232,7 @@
     </row>
     <row r="524" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A524" s="3"/>
+      <c r="I524"/>
       <c r="K524" s="21"/>
       <c r="L524" s="18"/>
       <c r="M524" s="18"/>
@@ -5531,6 +6241,7 @@
     </row>
     <row r="525" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A525" s="3"/>
+      <c r="I525"/>
       <c r="K525" s="21"/>
       <c r="L525" s="18"/>
       <c r="M525" s="18"/>
@@ -5539,6 +6250,7 @@
     </row>
     <row r="526" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A526" s="3"/>
+      <c r="I526"/>
       <c r="K526" s="21"/>
       <c r="L526" s="18"/>
       <c r="M526" s="18"/>
@@ -5547,6 +6259,7 @@
     </row>
     <row r="527" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A527" s="3"/>
+      <c r="I527"/>
       <c r="K527" s="21"/>
       <c r="L527" s="18"/>
       <c r="M527" s="18"/>
@@ -5555,6 +6268,7 @@
     </row>
     <row r="528" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A528" s="3"/>
+      <c r="I528"/>
       <c r="K528" s="21"/>
       <c r="L528" s="18"/>
       <c r="M528" s="18"/>
@@ -5563,6 +6277,7 @@
     </row>
     <row r="529" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A529" s="3"/>
+      <c r="I529"/>
       <c r="K529" s="21"/>
       <c r="L529" s="18"/>
       <c r="M529" s="18"/>
@@ -5571,6 +6286,7 @@
     </row>
     <row r="530" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A530" s="3"/>
+      <c r="I530"/>
       <c r="K530" s="21"/>
       <c r="L530" s="18"/>
       <c r="M530" s="18"/>
@@ -5579,6 +6295,7 @@
     </row>
     <row r="531" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A531" s="3"/>
+      <c r="I531"/>
       <c r="K531" s="21"/>
       <c r="L531" s="18"/>
       <c r="M531" s="18"/>
@@ -5587,6 +6304,7 @@
     </row>
     <row r="532" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A532" s="3"/>
+      <c r="I532"/>
       <c r="K532" s="21"/>
       <c r="L532" s="18"/>
       <c r="M532" s="18"/>
@@ -5595,6 +6313,7 @@
     </row>
     <row r="533" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A533" s="3"/>
+      <c r="I533"/>
       <c r="K533" s="21"/>
       <c r="L533" s="18"/>
       <c r="M533" s="18"/>
@@ -5603,6 +6322,7 @@
     </row>
     <row r="534" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A534" s="3"/>
+      <c r="I534"/>
       <c r="K534" s="21"/>
       <c r="L534" s="18"/>
       <c r="M534" s="18"/>
@@ -5611,6 +6331,7 @@
     </row>
     <row r="535" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A535" s="3"/>
+      <c r="I535"/>
       <c r="K535" s="21"/>
       <c r="L535" s="18"/>
       <c r="M535" s="18"/>
@@ -5619,6 +6340,7 @@
     </row>
     <row r="536" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A536" s="3"/>
+      <c r="I536"/>
       <c r="K536" s="21"/>
       <c r="L536" s="18"/>
       <c r="M536" s="18"/>
@@ -5627,6 +6349,7 @@
     </row>
     <row r="537" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A537" s="3"/>
+      <c r="I537"/>
       <c r="K537" s="21"/>
       <c r="L537" s="18"/>
       <c r="M537" s="18"/>
@@ -5635,6 +6358,7 @@
     </row>
     <row r="538" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A538" s="3"/>
+      <c r="I538"/>
       <c r="K538" s="21"/>
       <c r="L538" s="18"/>
       <c r="M538" s="18"/>
@@ -5643,6 +6367,7 @@
     </row>
     <row r="539" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A539" s="3"/>
+      <c r="I539"/>
       <c r="K539" s="21"/>
       <c r="L539" s="18"/>
       <c r="M539" s="18"/>
@@ -5651,6 +6376,7 @@
     </row>
     <row r="540" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A540" s="3"/>
+      <c r="I540"/>
       <c r="K540" s="21"/>
       <c r="L540" s="18"/>
       <c r="M540" s="18"/>
@@ -5659,6 +6385,7 @@
     </row>
     <row r="541" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A541" s="3"/>
+      <c r="I541"/>
       <c r="K541" s="21"/>
       <c r="L541" s="18"/>
       <c r="M541" s="18"/>
@@ -5667,6 +6394,7 @@
     </row>
     <row r="542" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A542" s="3"/>
+      <c r="I542"/>
       <c r="K542" s="21"/>
       <c r="L542" s="18"/>
       <c r="M542" s="18"/>
@@ -5675,6 +6403,7 @@
     </row>
     <row r="543" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A543" s="3"/>
+      <c r="I543"/>
       <c r="K543" s="21"/>
       <c r="L543" s="18"/>
       <c r="M543" s="18"/>
@@ -5683,6 +6412,7 @@
     </row>
     <row r="544" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A544" s="3"/>
+      <c r="I544"/>
       <c r="K544" s="21"/>
       <c r="L544" s="18"/>
       <c r="M544" s="18"/>
@@ -5691,6 +6421,7 @@
     </row>
     <row r="545" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A545" s="3"/>
+      <c r="I545"/>
       <c r="K545" s="21"/>
       <c r="L545" s="18"/>
       <c r="M545" s="18"/>
@@ -5699,6 +6430,7 @@
     </row>
     <row r="546" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A546" s="3"/>
+      <c r="I546"/>
       <c r="K546" s="21"/>
       <c r="L546" s="18"/>
       <c r="M546" s="18"/>
@@ -5707,6 +6439,7 @@
     </row>
     <row r="547" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A547" s="3"/>
+      <c r="I547"/>
       <c r="K547" s="21"/>
       <c r="L547" s="18"/>
       <c r="M547" s="18"/>
@@ -5715,6 +6448,7 @@
     </row>
     <row r="548" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A548" s="3"/>
+      <c r="I548"/>
       <c r="K548" s="21"/>
       <c r="L548" s="18"/>
       <c r="M548" s="18"/>
@@ -5723,6 +6457,7 @@
     </row>
     <row r="549" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A549" s="3"/>
+      <c r="I549"/>
       <c r="K549" s="21"/>
       <c r="L549" s="18"/>
       <c r="M549" s="18"/>
@@ -5731,6 +6466,7 @@
     </row>
     <row r="550" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A550" s="3"/>
+      <c r="I550"/>
       <c r="K550" s="21"/>
       <c r="L550" s="18"/>
       <c r="M550" s="18"/>
@@ -5739,6 +6475,7 @@
     </row>
     <row r="551" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A551" s="3"/>
+      <c r="I551"/>
       <c r="K551" s="21"/>
       <c r="L551" s="18"/>
       <c r="M551" s="18"/>
@@ -5747,6 +6484,7 @@
     </row>
     <row r="552" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A552" s="3"/>
+      <c r="I552"/>
       <c r="K552" s="21"/>
       <c r="L552" s="18"/>
       <c r="M552" s="18"/>
@@ -5755,6 +6493,7 @@
     </row>
     <row r="553" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A553" s="3"/>
+      <c r="I553"/>
       <c r="K553" s="21"/>
       <c r="L553" s="18"/>
       <c r="M553" s="18"/>
@@ -5763,6 +6502,7 @@
     </row>
     <row r="554" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A554" s="3"/>
+      <c r="I554"/>
       <c r="K554" s="21"/>
       <c r="L554" s="18"/>
       <c r="M554" s="18"/>
@@ -5771,6 +6511,7 @@
     </row>
     <row r="555" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A555" s="3"/>
+      <c r="I555"/>
       <c r="K555" s="21"/>
       <c r="L555" s="18"/>
       <c r="M555" s="18"/>
@@ -5779,6 +6520,7 @@
     </row>
     <row r="556" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A556" s="3"/>
+      <c r="I556"/>
       <c r="K556" s="21"/>
       <c r="L556" s="18"/>
       <c r="M556" s="18"/>
@@ -5787,6 +6529,7 @@
     </row>
     <row r="557" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A557" s="3"/>
+      <c r="I557"/>
       <c r="K557" s="21"/>
       <c r="L557" s="18"/>
       <c r="M557" s="18"/>
@@ -5795,6 +6538,7 @@
     </row>
     <row r="558" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A558" s="3"/>
+      <c r="I558"/>
       <c r="K558" s="21"/>
       <c r="L558" s="18"/>
       <c r="M558" s="18"/>
@@ -5803,6 +6547,7 @@
     </row>
     <row r="559" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A559" s="3"/>
+      <c r="I559"/>
       <c r="K559" s="21"/>
       <c r="L559" s="18"/>
       <c r="M559" s="18"/>
@@ -5811,6 +6556,7 @@
     </row>
     <row r="560" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A560" s="3"/>
+      <c r="I560"/>
       <c r="K560" s="21"/>
       <c r="L560" s="18"/>
       <c r="M560" s="18"/>
@@ -5819,6 +6565,7 @@
     </row>
     <row r="561" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A561" s="3"/>
+      <c r="I561"/>
       <c r="K561" s="21"/>
       <c r="L561" s="18"/>
       <c r="M561" s="18"/>
@@ -5827,6 +6574,7 @@
     </row>
     <row r="562" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A562" s="3"/>
+      <c r="I562"/>
       <c r="K562" s="21"/>
       <c r="L562" s="18"/>
       <c r="M562" s="18"/>
@@ -5835,6 +6583,7 @@
     </row>
     <row r="563" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A563" s="3"/>
+      <c r="I563"/>
       <c r="K563" s="21"/>
       <c r="L563" s="18"/>
       <c r="M563" s="18"/>
@@ -5843,6 +6592,7 @@
     </row>
     <row r="564" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A564" s="3"/>
+      <c r="I564"/>
       <c r="K564" s="21"/>
       <c r="L564" s="18"/>
       <c r="M564" s="18"/>
@@ -5851,6 +6601,7 @@
     </row>
     <row r="565" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A565" s="3"/>
+      <c r="I565"/>
       <c r="K565" s="21"/>
       <c r="L565" s="18"/>
       <c r="M565" s="18"/>
@@ -5859,6 +6610,7 @@
     </row>
     <row r="566" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A566" s="3"/>
+      <c r="I566"/>
       <c r="K566" s="21"/>
       <c r="L566" s="18"/>
       <c r="M566" s="18"/>
@@ -5867,6 +6619,7 @@
     </row>
     <row r="567" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A567" s="3"/>
+      <c r="I567"/>
       <c r="K567" s="21"/>
       <c r="L567" s="18"/>
       <c r="M567" s="18"/>
@@ -5875,6 +6628,7 @@
     </row>
     <row r="568" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A568" s="3"/>
+      <c r="I568"/>
       <c r="K568" s="21"/>
       <c r="L568" s="18"/>
       <c r="M568" s="18"/>
@@ -5883,6 +6637,7 @@
     </row>
     <row r="569" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A569" s="3"/>
+      <c r="I569"/>
       <c r="K569" s="21"/>
       <c r="L569" s="18"/>
       <c r="M569" s="18"/>
@@ -5891,6 +6646,7 @@
     </row>
     <row r="570" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A570" s="3"/>
+      <c r="I570"/>
       <c r="K570" s="21"/>
       <c r="L570" s="18"/>
       <c r="M570" s="18"/>
@@ -5899,6 +6655,7 @@
     </row>
     <row r="571" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A571" s="3"/>
+      <c r="I571"/>
       <c r="K571" s="21"/>
       <c r="L571" s="18"/>
       <c r="M571" s="18"/>
@@ -5907,6 +6664,7 @@
     </row>
     <row r="572" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A572" s="3"/>
+      <c r="I572"/>
       <c r="K572" s="21"/>
       <c r="L572" s="18"/>
       <c r="M572" s="18"/>
@@ -5915,6 +6673,7 @@
     </row>
     <row r="573" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A573" s="3"/>
+      <c r="I573"/>
       <c r="K573" s="21"/>
       <c r="L573" s="18"/>
       <c r="M573" s="18"/>
@@ -5923,6 +6682,7 @@
     </row>
     <row r="574" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A574" s="3"/>
+      <c r="I574"/>
       <c r="K574" s="21"/>
       <c r="L574" s="18"/>
       <c r="M574" s="18"/>
@@ -5931,6 +6691,7 @@
     </row>
     <row r="575" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A575" s="3"/>
+      <c r="I575"/>
       <c r="K575" s="21"/>
       <c r="L575" s="18"/>
       <c r="M575" s="18"/>
@@ -5939,6 +6700,7 @@
     </row>
     <row r="576" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A576" s="3"/>
+      <c r="I576"/>
       <c r="K576" s="21"/>
       <c r="L576" s="18"/>
       <c r="M576" s="18"/>
@@ -5947,6 +6709,7 @@
     </row>
     <row r="577" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A577" s="3"/>
+      <c r="I577"/>
       <c r="K577" s="21"/>
       <c r="L577" s="18"/>
       <c r="M577" s="18"/>
@@ -5955,6 +6718,7 @@
     </row>
     <row r="578" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A578" s="3"/>
+      <c r="I578"/>
       <c r="K578" s="21"/>
       <c r="L578" s="18"/>
       <c r="M578" s="18"/>
@@ -5963,6 +6727,7 @@
     </row>
     <row r="579" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A579" s="3"/>
+      <c r="I579"/>
       <c r="K579" s="21"/>
       <c r="L579" s="18"/>
       <c r="M579" s="18"/>
@@ -5971,6 +6736,7 @@
     </row>
     <row r="580" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A580" s="3"/>
+      <c r="I580"/>
       <c r="K580" s="21"/>
       <c r="L580" s="18"/>
       <c r="M580" s="18"/>
@@ -5979,6 +6745,7 @@
     </row>
     <row r="581" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A581" s="3"/>
+      <c r="I581"/>
       <c r="K581" s="21"/>
       <c r="L581" s="18"/>
       <c r="M581" s="18"/>
@@ -5987,6 +6754,7 @@
     </row>
     <row r="582" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A582" s="3"/>
+      <c r="I582"/>
       <c r="K582" s="21"/>
       <c r="L582" s="18"/>
       <c r="M582" s="18"/>
@@ -5995,6 +6763,7 @@
     </row>
     <row r="583" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A583" s="3"/>
+      <c r="I583"/>
       <c r="K583" s="21"/>
       <c r="L583" s="18"/>
       <c r="M583" s="18"/>
@@ -6003,6 +6772,7 @@
     </row>
     <row r="584" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A584" s="3"/>
+      <c r="I584"/>
       <c r="K584" s="21"/>
       <c r="L584" s="18"/>
       <c r="M584" s="18"/>
@@ -6011,6 +6781,7 @@
     </row>
     <row r="585" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A585" s="3"/>
+      <c r="I585"/>
       <c r="K585" s="21"/>
       <c r="L585" s="18"/>
       <c r="M585" s="18"/>
@@ -6019,6 +6790,7 @@
     </row>
     <row r="586" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A586" s="3"/>
+      <c r="I586"/>
       <c r="K586" s="21"/>
       <c r="L586" s="18"/>
       <c r="M586" s="18"/>
@@ -6027,6 +6799,7 @@
     </row>
     <row r="587" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A587" s="3"/>
+      <c r="I587"/>
       <c r="K587" s="21"/>
       <c r="L587" s="18"/>
       <c r="M587" s="18"/>
@@ -6035,6 +6808,7 @@
     </row>
     <row r="588" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A588" s="3"/>
+      <c r="I588"/>
       <c r="K588" s="21"/>
       <c r="L588" s="18"/>
       <c r="M588" s="18"/>
@@ -6043,6 +6817,7 @@
     </row>
     <row r="589" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A589" s="3"/>
+      <c r="I589"/>
       <c r="K589" s="21"/>
       <c r="L589" s="18"/>
       <c r="M589" s="18"/>
@@ -6051,6 +6826,7 @@
     </row>
     <row r="590" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A590" s="3"/>
+      <c r="I590"/>
       <c r="K590" s="21"/>
       <c r="L590" s="18"/>
       <c r="M590" s="18"/>
@@ -6059,6 +6835,7 @@
     </row>
     <row r="591" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A591" s="3"/>
+      <c r="I591"/>
       <c r="K591" s="21"/>
       <c r="L591" s="18"/>
       <c r="M591" s="18"/>
@@ -6067,6 +6844,7 @@
     </row>
     <row r="592" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A592" s="3"/>
+      <c r="I592"/>
       <c r="K592" s="21"/>
       <c r="L592" s="18"/>
       <c r="M592" s="18"/>
@@ -6075,6 +6853,7 @@
     </row>
     <row r="593" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A593" s="3"/>
+      <c r="I593"/>
       <c r="K593" s="21"/>
       <c r="L593" s="18"/>
       <c r="M593" s="18"/>
@@ -6083,6 +6862,7 @@
     </row>
     <row r="594" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A594" s="3"/>
+      <c r="I594"/>
       <c r="K594" s="21"/>
       <c r="L594" s="18"/>
       <c r="M594" s="18"/>
@@ -6091,6 +6871,7 @@
     </row>
     <row r="595" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A595" s="3"/>
+      <c r="I595"/>
       <c r="K595" s="21"/>
       <c r="L595" s="18"/>
       <c r="M595" s="18"/>
@@ -6099,6 +6880,7 @@
     </row>
     <row r="596" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A596" s="3"/>
+      <c r="I596"/>
       <c r="K596" s="21"/>
       <c r="L596" s="18"/>
       <c r="M596" s="18"/>
@@ -6107,6 +6889,7 @@
     </row>
     <row r="597" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A597" s="3"/>
+      <c r="I597"/>
       <c r="K597" s="21"/>
       <c r="L597" s="18"/>
       <c r="M597" s="18"/>
@@ -6115,6 +6898,7 @@
     </row>
     <row r="598" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A598" s="3"/>
+      <c r="I598"/>
       <c r="K598" s="21"/>
       <c r="L598" s="18"/>
       <c r="M598" s="18"/>
@@ -6123,6 +6907,7 @@
     </row>
     <row r="599" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A599" s="3"/>
+      <c r="I599"/>
       <c r="K599" s="21"/>
       <c r="L599" s="18"/>
       <c r="M599" s="18"/>
@@ -6131,6 +6916,7 @@
     </row>
     <row r="600" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A600" s="3"/>
+      <c r="I600"/>
       <c r="K600" s="21"/>
       <c r="L600" s="18"/>
       <c r="M600" s="18"/>
@@ -6139,6 +6925,7 @@
     </row>
     <row r="601" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A601" s="3"/>
+      <c r="I601"/>
       <c r="K601" s="21"/>
       <c r="L601" s="18"/>
       <c r="M601" s="18"/>
@@ -6147,6 +6934,7 @@
     </row>
     <row r="602" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A602" s="3"/>
+      <c r="I602"/>
       <c r="K602" s="21"/>
       <c r="L602" s="18"/>
       <c r="M602" s="18"/>
@@ -6155,6 +6943,7 @@
     </row>
     <row r="603" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A603" s="3"/>
+      <c r="I603"/>
       <c r="K603" s="21"/>
       <c r="L603" s="18"/>
       <c r="M603" s="18"/>
@@ -6163,6 +6952,7 @@
     </row>
     <row r="604" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A604" s="3"/>
+      <c r="I604"/>
       <c r="K604" s="21"/>
       <c r="L604" s="18"/>
       <c r="M604" s="18"/>
@@ -6171,6 +6961,7 @@
     </row>
     <row r="605" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A605" s="3"/>
+      <c r="I605"/>
       <c r="K605" s="21"/>
       <c r="L605" s="18"/>
       <c r="M605" s="18"/>
@@ -6179,6 +6970,7 @@
     </row>
     <row r="606" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A606" s="3"/>
+      <c r="I606"/>
       <c r="K606" s="21"/>
       <c r="L606" s="18"/>
       <c r="M606" s="18"/>
@@ -6187,6 +6979,7 @@
     </row>
     <row r="607" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A607" s="3"/>
+      <c r="I607"/>
       <c r="K607" s="21"/>
       <c r="L607" s="18"/>
       <c r="M607" s="18"/>
@@ -6195,6 +6988,7 @@
     </row>
     <row r="608" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A608" s="3"/>
+      <c r="I608"/>
       <c r="K608" s="21"/>
       <c r="L608" s="18"/>
       <c r="M608" s="18"/>
@@ -6203,6 +6997,7 @@
     </row>
     <row r="609" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A609" s="3"/>
+      <c r="I609"/>
       <c r="K609" s="21"/>
       <c r="L609" s="18"/>
       <c r="M609" s="18"/>
@@ -6211,6 +7006,7 @@
     </row>
     <row r="610" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A610" s="3"/>
+      <c r="I610"/>
       <c r="K610" s="21"/>
       <c r="L610" s="18"/>
       <c r="M610" s="18"/>
@@ -6219,6 +7015,7 @@
     </row>
     <row r="611" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A611" s="3"/>
+      <c r="I611"/>
       <c r="K611" s="21"/>
       <c r="L611" s="18"/>
       <c r="M611" s="18"/>
@@ -6227,6 +7024,7 @@
     </row>
     <row r="612" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A612" s="3"/>
+      <c r="I612"/>
       <c r="K612" s="21"/>
       <c r="L612" s="18"/>
       <c r="M612" s="18"/>
@@ -6235,6 +7033,7 @@
     </row>
     <row r="613" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A613" s="3"/>
+      <c r="I613"/>
       <c r="K613" s="21"/>
       <c r="L613" s="18"/>
       <c r="M613" s="18"/>
@@ -6243,6 +7042,7 @@
     </row>
     <row r="614" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A614" s="3"/>
+      <c r="I614"/>
       <c r="K614" s="21"/>
       <c r="L614" s="18"/>
       <c r="M614" s="18"/>
@@ -6251,6 +7051,7 @@
     </row>
     <row r="615" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A615" s="3"/>
+      <c r="I615"/>
       <c r="K615" s="21"/>
       <c r="L615" s="18"/>
       <c r="M615" s="18"/>
@@ -6259,6 +7060,7 @@
     </row>
     <row r="616" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A616" s="3"/>
+      <c r="I616"/>
       <c r="K616" s="21"/>
       <c r="L616" s="18"/>
       <c r="M616" s="18"/>
@@ -6267,6 +7069,7 @@
     </row>
     <row r="617" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A617" s="3"/>
+      <c r="I617"/>
       <c r="K617" s="21"/>
       <c r="L617" s="18"/>
       <c r="M617" s="18"/>
@@ -6275,6 +7078,7 @@
     </row>
     <row r="618" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A618" s="3"/>
+      <c r="I618"/>
       <c r="K618" s="21"/>
       <c r="L618" s="18"/>
       <c r="M618" s="18"/>
@@ -6283,6 +7087,7 @@
     </row>
     <row r="619" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A619" s="3"/>
+      <c r="I619"/>
       <c r="K619" s="21"/>
       <c r="L619" s="18"/>
       <c r="M619" s="18"/>
@@ -6291,6 +7096,7 @@
     </row>
     <row r="620" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A620" s="3"/>
+      <c r="I620"/>
       <c r="K620" s="21"/>
       <c r="L620" s="18"/>
       <c r="M620" s="18"/>
@@ -6299,6 +7105,7 @@
     </row>
     <row r="621" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A621" s="3"/>
+      <c r="I621"/>
       <c r="K621" s="21"/>
       <c r="L621" s="18"/>
       <c r="M621" s="18"/>
@@ -6307,6 +7114,7 @@
     </row>
     <row r="622" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A622" s="3"/>
+      <c r="I622"/>
       <c r="K622" s="21"/>
       <c r="L622" s="18"/>
       <c r="M622" s="18"/>
@@ -6315,6 +7123,7 @@
     </row>
     <row r="623" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A623" s="3"/>
+      <c r="I623"/>
       <c r="K623" s="21"/>
       <c r="L623" s="18"/>
       <c r="M623" s="18"/>
@@ -6323,6 +7132,7 @@
     </row>
     <row r="624" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A624" s="3"/>
+      <c r="I624"/>
       <c r="K624" s="21"/>
       <c r="L624" s="18"/>
       <c r="M624" s="18"/>
@@ -6331,6 +7141,7 @@
     </row>
     <row r="625" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A625" s="3"/>
+      <c r="I625"/>
       <c r="K625" s="21"/>
       <c r="L625" s="18"/>
       <c r="M625" s="18"/>
@@ -6339,6 +7150,7 @@
     </row>
     <row r="626" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A626" s="3"/>
+      <c r="I626"/>
       <c r="K626" s="21"/>
       <c r="L626" s="18"/>
       <c r="M626" s="18"/>
@@ -6347,6 +7159,7 @@
     </row>
     <row r="627" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A627" s="3"/>
+      <c r="I627"/>
       <c r="K627" s="21"/>
       <c r="L627" s="18"/>
       <c r="M627" s="18"/>
@@ -6355,6 +7168,7 @@
     </row>
     <row r="628" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A628" s="3"/>
+      <c r="I628"/>
       <c r="K628" s="21"/>
       <c r="L628" s="18"/>
       <c r="M628" s="18"/>
@@ -6363,6 +7177,7 @@
     </row>
     <row r="629" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A629" s="3"/>
+      <c r="I629"/>
       <c r="K629" s="21"/>
       <c r="L629" s="18"/>
       <c r="M629" s="18"/>
@@ -6371,6 +7186,7 @@
     </row>
     <row r="630" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A630" s="3"/>
+      <c r="I630"/>
       <c r="K630" s="21"/>
       <c r="L630" s="18"/>
       <c r="M630" s="18"/>
@@ -6379,6 +7195,7 @@
     </row>
     <row r="631" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A631" s="3"/>
+      <c r="I631"/>
       <c r="K631" s="21"/>
       <c r="L631" s="18"/>
       <c r="M631" s="18"/>
@@ -6387,6 +7204,7 @@
     </row>
     <row r="632" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A632" s="3"/>
+      <c r="I632"/>
       <c r="K632" s="21"/>
       <c r="L632" s="18"/>
       <c r="M632" s="18"/>
@@ -6395,6 +7213,7 @@
     </row>
     <row r="633" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A633" s="3"/>
+      <c r="I633"/>
       <c r="K633" s="21"/>
       <c r="L633" s="18"/>
       <c r="M633" s="18"/>
@@ -6403,6 +7222,7 @@
     </row>
     <row r="634" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A634" s="3"/>
+      <c r="I634"/>
       <c r="K634" s="21"/>
       <c r="L634" s="18"/>
       <c r="M634" s="18"/>
@@ -6411,6 +7231,7 @@
     </row>
     <row r="635" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A635" s="3"/>
+      <c r="I635"/>
       <c r="K635" s="21"/>
       <c r="L635" s="18"/>
       <c r="M635" s="18"/>
@@ -6419,6 +7240,7 @@
     </row>
     <row r="636" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A636" s="3"/>
+      <c r="I636"/>
       <c r="K636" s="21"/>
       <c r="L636" s="18"/>
       <c r="M636" s="18"/>
@@ -6427,6 +7249,7 @@
     </row>
     <row r="637" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A637" s="3"/>
+      <c r="I637"/>
       <c r="K637" s="21"/>
       <c r="L637" s="18"/>
       <c r="M637" s="18"/>
@@ -6435,6 +7258,7 @@
     </row>
     <row r="638" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A638" s="3"/>
+      <c r="I638"/>
       <c r="K638" s="21"/>
       <c r="L638" s="18"/>
       <c r="M638" s="18"/>
@@ -6443,6 +7267,7 @@
     </row>
     <row r="639" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A639" s="3"/>
+      <c r="I639"/>
       <c r="K639" s="21"/>
       <c r="L639" s="18"/>
       <c r="M639" s="18"/>
@@ -6451,6 +7276,7 @@
     </row>
     <row r="640" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A640" s="3"/>
+      <c r="I640"/>
       <c r="K640" s="21"/>
       <c r="L640" s="18"/>
       <c r="M640" s="18"/>
@@ -6459,6 +7285,7 @@
     </row>
     <row r="641" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A641" s="3"/>
+      <c r="I641"/>
       <c r="K641" s="21"/>
       <c r="L641" s="18"/>
       <c r="M641" s="18"/>
@@ -6467,6 +7294,7 @@
     </row>
     <row r="642" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A642" s="3"/>
+      <c r="I642"/>
       <c r="K642" s="21"/>
       <c r="L642" s="18"/>
       <c r="M642" s="18"/>
@@ -6475,6 +7303,7 @@
     </row>
     <row r="643" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A643" s="3"/>
+      <c r="I643"/>
       <c r="K643" s="21"/>
       <c r="L643" s="18"/>
       <c r="M643" s="18"/>
@@ -6483,6 +7312,7 @@
     </row>
     <row r="644" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A644" s="3"/>
+      <c r="I644"/>
       <c r="K644" s="21"/>
       <c r="L644" s="18"/>
       <c r="M644" s="18"/>
@@ -6491,6 +7321,7 @@
     </row>
     <row r="645" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A645" s="3"/>
+      <c r="I645"/>
       <c r="K645" s="21"/>
       <c r="L645" s="18"/>
       <c r="M645" s="18"/>
@@ -6499,6 +7330,7 @@
     </row>
     <row r="646" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A646" s="3"/>
+      <c r="I646"/>
       <c r="K646" s="21"/>
       <c r="L646" s="18"/>
       <c r="M646" s="18"/>
@@ -6507,6 +7339,7 @@
     </row>
     <row r="647" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A647" s="3"/>
+      <c r="I647"/>
       <c r="K647" s="21"/>
       <c r="L647" s="18"/>
       <c r="M647" s="18"/>
@@ -6515,6 +7348,7 @@
     </row>
     <row r="648" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A648" s="3"/>
+      <c r="I648"/>
       <c r="K648" s="21"/>
       <c r="L648" s="18"/>
       <c r="M648" s="18"/>
@@ -6523,6 +7357,7 @@
     </row>
     <row r="649" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A649" s="3"/>
+      <c r="I649"/>
       <c r="K649" s="21"/>
       <c r="L649" s="18"/>
       <c r="M649" s="18"/>
@@ -6531,6 +7366,7 @@
     </row>
     <row r="650" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A650" s="3"/>
+      <c r="I650"/>
       <c r="K650" s="21"/>
       <c r="L650" s="18"/>
       <c r="M650" s="18"/>
@@ -6539,6 +7375,7 @@
     </row>
     <row r="651" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A651" s="3"/>
+      <c r="I651"/>
       <c r="K651" s="21"/>
       <c r="L651" s="18"/>
       <c r="M651" s="18"/>
@@ -6547,6 +7384,7 @@
     </row>
     <row r="652" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A652" s="3"/>
+      <c r="I652"/>
       <c r="K652" s="21"/>
       <c r="L652" s="18"/>
       <c r="M652" s="18"/>
@@ -6555,6 +7393,7 @@
     </row>
     <row r="653" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A653" s="3"/>
+      <c r="I653"/>
       <c r="K653" s="21"/>
       <c r="L653" s="18"/>
       <c r="M653" s="18"/>
@@ -6563,6 +7402,7 @@
     </row>
     <row r="654" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A654" s="3"/>
+      <c r="I654"/>
       <c r="K654" s="21"/>
       <c r="L654" s="18"/>
       <c r="M654" s="18"/>
@@ -6571,6 +7411,7 @@
     </row>
     <row r="655" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A655" s="3"/>
+      <c r="I655"/>
       <c r="K655" s="21"/>
       <c r="L655" s="18"/>
       <c r="M655" s="18"/>
@@ -6579,6 +7420,7 @@
     </row>
     <row r="656" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A656" s="3"/>
+      <c r="I656"/>
       <c r="K656" s="21"/>
       <c r="L656" s="18"/>
       <c r="M656" s="18"/>
@@ -6587,6 +7429,7 @@
     </row>
     <row r="657" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A657" s="3"/>
+      <c r="I657"/>
       <c r="K657" s="21"/>
       <c r="L657" s="18"/>
       <c r="M657" s="18"/>
@@ -6595,6 +7438,7 @@
     </row>
     <row r="658" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A658" s="3"/>
+      <c r="I658"/>
       <c r="K658" s="21"/>
       <c r="L658" s="18"/>
       <c r="M658" s="18"/>
@@ -6603,6 +7447,7 @@
     </row>
     <row r="659" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A659" s="3"/>
+      <c r="I659"/>
       <c r="K659" s="21"/>
       <c r="L659" s="18"/>
       <c r="M659" s="18"/>
@@ -6611,6 +7456,7 @@
     </row>
     <row r="660" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A660" s="3"/>
+      <c r="I660"/>
       <c r="K660" s="21"/>
       <c r="L660" s="18"/>
       <c r="M660" s="18"/>
@@ -6619,6 +7465,7 @@
     </row>
     <row r="661" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A661" s="3"/>
+      <c r="I661"/>
       <c r="K661" s="21"/>
       <c r="L661" s="18"/>
       <c r="M661" s="18"/>
@@ -6627,6 +7474,7 @@
     </row>
     <row r="662" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A662" s="3"/>
+      <c r="I662"/>
       <c r="K662" s="21"/>
       <c r="L662" s="18"/>
       <c r="M662" s="18"/>
@@ -6635,6 +7483,7 @@
     </row>
     <row r="663" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A663" s="3"/>
+      <c r="I663"/>
       <c r="K663" s="21"/>
       <c r="L663" s="18"/>
       <c r="M663" s="18"/>
@@ -6643,6 +7492,7 @@
     </row>
     <row r="664" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A664" s="3"/>
+      <c r="I664"/>
       <c r="K664" s="21"/>
       <c r="L664" s="18"/>
       <c r="M664" s="18"/>
@@ -6651,6 +7501,7 @@
     </row>
     <row r="665" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A665" s="3"/>
+      <c r="I665"/>
       <c r="K665" s="21"/>
       <c r="L665" s="18"/>
       <c r="M665" s="18"/>
@@ -6659,6 +7510,7 @@
     </row>
     <row r="666" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A666" s="3"/>
+      <c r="I666"/>
       <c r="K666" s="21"/>
       <c r="L666" s="18"/>
       <c r="M666" s="18"/>
@@ -6667,6 +7519,7 @@
     </row>
     <row r="667" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A667" s="3"/>
+      <c r="I667"/>
       <c r="K667" s="21"/>
       <c r="L667" s="18"/>
       <c r="M667" s="18"/>
@@ -6675,6 +7528,7 @@
     </row>
     <row r="668" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A668" s="3"/>
+      <c r="I668"/>
       <c r="K668" s="21"/>
       <c r="L668" s="18"/>
       <c r="M668" s="18"/>
@@ -6683,6 +7537,7 @@
     </row>
     <row r="669" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A669" s="3"/>
+      <c r="I669"/>
       <c r="K669" s="21"/>
       <c r="L669" s="18"/>
       <c r="M669" s="18"/>
@@ -6691,6 +7546,7 @@
     </row>
     <row r="670" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A670" s="3"/>
+      <c r="I670"/>
       <c r="K670" s="21"/>
       <c r="L670" s="18"/>
       <c r="M670" s="18"/>
@@ -6699,6 +7555,7 @@
     </row>
     <row r="671" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A671" s="3"/>
+      <c r="I671"/>
       <c r="K671" s="21"/>
       <c r="L671" s="18"/>
       <c r="M671" s="18"/>
@@ -6707,6 +7564,7 @@
     </row>
     <row r="672" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A672" s="3"/>
+      <c r="I672"/>
       <c r="K672" s="21"/>
       <c r="L672" s="18"/>
       <c r="M672" s="18"/>
@@ -6715,6 +7573,7 @@
     </row>
     <row r="673" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A673" s="3"/>
+      <c r="I673"/>
       <c r="K673" s="21"/>
       <c r="L673" s="18"/>
       <c r="M673" s="18"/>
@@ -6723,6 +7582,7 @@
     </row>
     <row r="674" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A674" s="3"/>
+      <c r="I674"/>
       <c r="K674" s="21"/>
       <c r="L674" s="18"/>
       <c r="M674" s="18"/>
@@ -6731,6 +7591,7 @@
     </row>
     <row r="675" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A675" s="3"/>
+      <c r="I675"/>
       <c r="K675" s="21"/>
       <c r="L675" s="18"/>
       <c r="M675" s="18"/>
@@ -6739,6 +7600,7 @@
     </row>
     <row r="676" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A676" s="3"/>
+      <c r="I676"/>
       <c r="K676" s="21"/>
       <c r="L676" s="18"/>
       <c r="M676" s="18"/>
@@ -6747,6 +7609,7 @@
     </row>
     <row r="677" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A677" s="3"/>
+      <c r="I677"/>
       <c r="K677" s="21"/>
       <c r="L677" s="18"/>
       <c r="M677" s="18"/>
@@ -6755,6 +7618,7 @@
     </row>
     <row r="678" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A678" s="3"/>
+      <c r="I678"/>
       <c r="K678" s="21"/>
       <c r="L678" s="18"/>
       <c r="M678" s="18"/>
@@ -6763,6 +7627,7 @@
     </row>
     <row r="679" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A679" s="3"/>
+      <c r="I679"/>
       <c r="K679" s="21"/>
       <c r="L679" s="18"/>
       <c r="M679" s="18"/>
@@ -6771,6 +7636,7 @@
     </row>
     <row r="680" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A680" s="3"/>
+      <c r="I680"/>
       <c r="K680" s="21"/>
       <c r="L680" s="18"/>
       <c r="M680" s="18"/>
@@ -6779,6 +7645,7 @@
     </row>
     <row r="681" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A681" s="3"/>
+      <c r="I681"/>
       <c r="K681" s="21"/>
       <c r="L681" s="18"/>
       <c r="M681" s="18"/>
@@ -6787,6 +7654,7 @@
     </row>
     <row r="682" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A682" s="3"/>
+      <c r="I682"/>
       <c r="K682" s="21"/>
       <c r="L682" s="18"/>
       <c r="M682" s="18"/>
@@ -6795,6 +7663,7 @@
     </row>
     <row r="683" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A683" s="3"/>
+      <c r="I683"/>
       <c r="K683" s="21"/>
       <c r="L683" s="18"/>
       <c r="M683" s="18"/>
@@ -6803,6 +7672,7 @@
     </row>
     <row r="684" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A684" s="3"/>
+      <c r="I684"/>
       <c r="K684" s="21"/>
       <c r="L684" s="18"/>
       <c r="M684" s="18"/>
@@ -6811,6 +7681,7 @@
     </row>
     <row r="685" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A685" s="3"/>
+      <c r="I685"/>
       <c r="K685" s="21"/>
       <c r="L685" s="18"/>
       <c r="M685" s="18"/>
@@ -6819,6 +7690,7 @@
     </row>
     <row r="686" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A686" s="3"/>
+      <c r="I686"/>
       <c r="K686" s="21"/>
       <c r="L686" s="18"/>
       <c r="M686" s="18"/>
@@ -6827,6 +7699,7 @@
     </row>
     <row r="687" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A687" s="3"/>
+      <c r="I687"/>
       <c r="K687" s="21"/>
       <c r="L687" s="18"/>
       <c r="M687" s="18"/>
@@ -6835,6 +7708,7 @@
     </row>
     <row r="688" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A688" s="3"/>
+      <c r="I688"/>
       <c r="K688" s="21"/>
       <c r="L688" s="18"/>
       <c r="M688" s="18"/>
@@ -6843,6 +7717,7 @@
     </row>
     <row r="689" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A689" s="3"/>
+      <c r="I689"/>
       <c r="K689" s="21"/>
       <c r="L689" s="18"/>
       <c r="M689" s="18"/>
@@ -6851,6 +7726,7 @@
     </row>
     <row r="690" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A690" s="3"/>
+      <c r="I690"/>
       <c r="K690" s="21"/>
       <c r="L690" s="18"/>
       <c r="M690" s="18"/>
@@ -6859,6 +7735,7 @@
     </row>
     <row r="691" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A691" s="3"/>
+      <c r="I691"/>
       <c r="K691" s="21"/>
       <c r="L691" s="18"/>
       <c r="M691" s="18"/>
@@ -6867,6 +7744,7 @@
     </row>
     <row r="692" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A692" s="3"/>
+      <c r="I692"/>
       <c r="K692" s="21"/>
       <c r="L692" s="18"/>
       <c r="M692" s="18"/>
@@ -6875,6 +7753,7 @@
     </row>
     <row r="693" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A693" s="3"/>
+      <c r="I693"/>
       <c r="K693" s="21"/>
       <c r="L693" s="18"/>
       <c r="M693" s="18"/>
@@ -6883,6 +7762,7 @@
     </row>
     <row r="694" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A694" s="3"/>
+      <c r="I694"/>
       <c r="K694" s="21"/>
       <c r="L694" s="18"/>
       <c r="M694" s="18"/>
@@ -6891,6 +7771,7 @@
     </row>
     <row r="695" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A695" s="3"/>
+      <c r="I695"/>
       <c r="K695" s="21"/>
       <c r="L695" s="18"/>
       <c r="M695" s="18"/>
@@ -6899,6 +7780,7 @@
     </row>
     <row r="696" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A696" s="3"/>
+      <c r="I696"/>
       <c r="K696" s="21"/>
       <c r="L696" s="18"/>
       <c r="M696" s="18"/>
@@ -6907,6 +7789,7 @@
     </row>
     <row r="697" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A697" s="3"/>
+      <c r="I697"/>
       <c r="K697" s="21"/>
       <c r="L697" s="18"/>
       <c r="M697" s="18"/>
@@ -6915,6 +7798,7 @@
     </row>
     <row r="698" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A698" s="3"/>
+      <c r="I698"/>
       <c r="K698" s="21"/>
       <c r="L698" s="18"/>
       <c r="M698" s="18"/>
@@ -6923,6 +7807,7 @@
     </row>
     <row r="699" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A699" s="3"/>
+      <c r="I699"/>
       <c r="K699" s="21"/>
       <c r="L699" s="18"/>
       <c r="M699" s="18"/>
@@ -6931,6 +7816,7 @@
     </row>
     <row r="700" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A700" s="3"/>
+      <c r="I700"/>
       <c r="K700" s="21"/>
       <c r="L700" s="18"/>
       <c r="M700" s="18"/>
@@ -6939,6 +7825,7 @@
     </row>
     <row r="701" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A701" s="3"/>
+      <c r="I701"/>
       <c r="K701" s="21"/>
       <c r="L701" s="18"/>
       <c r="M701" s="18"/>
@@ -6947,6 +7834,7 @@
     </row>
     <row r="702" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A702" s="3"/>
+      <c r="I702"/>
       <c r="K702" s="21"/>
       <c r="L702" s="18"/>
       <c r="M702" s="18"/>
@@ -6955,6 +7843,7 @@
     </row>
     <row r="703" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A703" s="3"/>
+      <c r="I703"/>
       <c r="K703" s="21"/>
       <c r="L703" s="18"/>
       <c r="M703" s="18"/>
@@ -6963,6 +7852,7 @@
     </row>
     <row r="704" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A704" s="3"/>
+      <c r="I704"/>
       <c r="K704" s="21"/>
       <c r="L704" s="18"/>
       <c r="M704" s="18"/>
@@ -6971,6 +7861,7 @@
     </row>
     <row r="705" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A705" s="3"/>
+      <c r="I705"/>
       <c r="K705" s="21"/>
       <c r="L705" s="18"/>
       <c r="M705" s="18"/>
@@ -6979,6 +7870,7 @@
     </row>
     <row r="706" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A706" s="3"/>
+      <c r="I706"/>
       <c r="K706" s="21"/>
       <c r="L706" s="18"/>
       <c r="M706" s="18"/>
@@ -6987,6 +7879,7 @@
     </row>
     <row r="707" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A707" s="3"/>
+      <c r="I707"/>
       <c r="K707" s="21"/>
       <c r="L707" s="18"/>
       <c r="M707" s="18"/>
@@ -6995,6 +7888,7 @@
     </row>
     <row r="708" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A708" s="3"/>
+      <c r="I708"/>
       <c r="K708" s="21"/>
       <c r="L708" s="18"/>
       <c r="M708" s="18"/>
@@ -7003,6 +7897,7 @@
     </row>
     <row r="709" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A709" s="3"/>
+      <c r="I709"/>
       <c r="K709" s="21"/>
       <c r="L709" s="18"/>
       <c r="M709" s="18"/>
@@ -7011,6 +7906,7 @@
     </row>
     <row r="710" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A710" s="3"/>
+      <c r="I710"/>
       <c r="K710" s="21"/>
       <c r="L710" s="18"/>
       <c r="M710" s="18"/>
@@ -7019,6 +7915,7 @@
     </row>
     <row r="711" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A711" s="3"/>
+      <c r="I711"/>
       <c r="K711" s="21"/>
       <c r="L711" s="18"/>
       <c r="M711" s="18"/>
@@ -7027,6 +7924,7 @@
     </row>
     <row r="712" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A712" s="3"/>
+      <c r="I712"/>
       <c r="K712" s="21"/>
       <c r="L712" s="18"/>
       <c r="M712" s="18"/>
@@ -7035,6 +7933,7 @@
     </row>
     <row r="713" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A713" s="3"/>
+      <c r="I713"/>
       <c r="K713" s="21"/>
       <c r="L713" s="18"/>
       <c r="M713" s="18"/>
@@ -7043,6 +7942,7 @@
     </row>
     <row r="714" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A714" s="3"/>
+      <c r="I714"/>
       <c r="K714" s="21"/>
       <c r="L714" s="18"/>
       <c r="M714" s="18"/>
@@ -7051,6 +7951,7 @@
     </row>
     <row r="715" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A715" s="3"/>
+      <c r="I715"/>
       <c r="K715" s="21"/>
       <c r="L715" s="18"/>
       <c r="M715" s="18"/>
@@ -7059,6 +7960,7 @@
     </row>
     <row r="716" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A716" s="3"/>
+      <c r="I716"/>
       <c r="K716" s="21"/>
       <c r="L716" s="18"/>
       <c r="M716" s="18"/>
@@ -7067,6 +7969,7 @@
     </row>
     <row r="717" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A717" s="3"/>
+      <c r="I717"/>
       <c r="K717" s="21"/>
       <c r="L717" s="18"/>
       <c r="M717" s="18"/>
@@ -7075,6 +7978,7 @@
     </row>
     <row r="718" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A718" s="3"/>
+      <c r="I718"/>
       <c r="K718" s="21"/>
       <c r="L718" s="18"/>
       <c r="M718" s="18"/>
@@ -7083,6 +7987,7 @@
     </row>
     <row r="719" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A719" s="3"/>
+      <c r="I719"/>
       <c r="K719" s="21"/>
       <c r="L719" s="18"/>
       <c r="M719" s="18"/>
@@ -7091,6 +7996,7 @@
     </row>
     <row r="720" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A720" s="3"/>
+      <c r="I720"/>
       <c r="K720" s="21"/>
       <c r="L720" s="18"/>
       <c r="M720" s="18"/>
@@ -7099,6 +8005,7 @@
     </row>
     <row r="721" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A721" s="3"/>
+      <c r="I721"/>
       <c r="K721" s="21"/>
       <c r="L721" s="18"/>
       <c r="M721" s="18"/>
@@ -7107,6 +8014,7 @@
     </row>
     <row r="722" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A722" s="3"/>
+      <c r="I722"/>
       <c r="K722" s="21"/>
       <c r="L722" s="18"/>
       <c r="M722" s="18"/>
@@ -7115,6 +8023,7 @@
     </row>
     <row r="723" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A723" s="3"/>
+      <c r="I723"/>
       <c r="K723" s="21"/>
       <c r="L723" s="18"/>
       <c r="M723" s="18"/>
@@ -7123,6 +8032,7 @@
     </row>
     <row r="724" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A724" s="3"/>
+      <c r="I724"/>
       <c r="K724" s="21"/>
       <c r="L724" s="18"/>
       <c r="M724" s="18"/>
@@ -7131,6 +8041,7 @@
     </row>
     <row r="725" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A725" s="3"/>
+      <c r="I725"/>
       <c r="K725" s="21"/>
       <c r="L725" s="18"/>
       <c r="M725" s="18"/>
@@ -7139,6 +8050,7 @@
     </row>
     <row r="726" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A726" s="3"/>
+      <c r="I726"/>
       <c r="K726" s="21"/>
       <c r="L726" s="18"/>
       <c r="M726" s="18"/>
@@ -7147,6 +8059,7 @@
     </row>
     <row r="727" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A727" s="3"/>
+      <c r="I727"/>
       <c r="K727" s="21"/>
       <c r="L727" s="18"/>
       <c r="M727" s="18"/>
@@ -7155,6 +8068,7 @@
     </row>
     <row r="728" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A728" s="3"/>
+      <c r="I728"/>
       <c r="K728" s="21"/>
       <c r="L728" s="18"/>
       <c r="M728" s="18"/>
@@ -7163,6 +8077,7 @@
     </row>
     <row r="729" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A729" s="3"/>
+      <c r="I729"/>
       <c r="K729" s="21"/>
       <c r="L729" s="18"/>
       <c r="M729" s="18"/>
@@ -7171,6 +8086,7 @@
     </row>
     <row r="730" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A730" s="3"/>
+      <c r="I730"/>
       <c r="K730" s="21"/>
       <c r="L730" s="18"/>
       <c r="M730" s="18"/>
@@ -7179,6 +8095,7 @@
     </row>
     <row r="731" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A731" s="3"/>
+      <c r="I731"/>
       <c r="K731" s="21"/>
       <c r="L731" s="18"/>
       <c r="M731" s="18"/>
@@ -7187,6 +8104,7 @@
     </row>
     <row r="732" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A732" s="3"/>
+      <c r="I732"/>
       <c r="K732" s="21"/>
       <c r="L732" s="18"/>
       <c r="M732" s="18"/>
@@ -7195,6 +8113,7 @@
     </row>
     <row r="733" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A733" s="3"/>
+      <c r="I733"/>
       <c r="K733" s="21"/>
       <c r="L733" s="18"/>
       <c r="M733" s="18"/>
@@ -7203,6 +8122,7 @@
     </row>
     <row r="734" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A734" s="3"/>
+      <c r="I734"/>
       <c r="K734" s="21"/>
       <c r="L734" s="18"/>
       <c r="M734" s="18"/>
@@ -7211,6 +8131,7 @@
     </row>
     <row r="735" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A735" s="3"/>
+      <c r="I735"/>
       <c r="K735" s="21"/>
       <c r="L735" s="18"/>
       <c r="M735" s="18"/>
@@ -7219,6 +8140,7 @@
     </row>
     <row r="736" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A736" s="3"/>
+      <c r="I736"/>
       <c r="K736" s="21"/>
       <c r="L736" s="18"/>
       <c r="M736" s="18"/>
@@ -7227,6 +8149,7 @@
     </row>
     <row r="737" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A737" s="3"/>
+      <c r="I737"/>
       <c r="K737" s="21"/>
       <c r="L737" s="18"/>
       <c r="M737" s="18"/>
@@ -7235,6 +8158,7 @@
     </row>
     <row r="738" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A738" s="3"/>
+      <c r="I738"/>
       <c r="K738" s="21"/>
       <c r="L738" s="18"/>
       <c r="M738" s="18"/>
@@ -7243,6 +8167,7 @@
     </row>
     <row r="739" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A739" s="3"/>
+      <c r="I739"/>
       <c r="K739" s="21"/>
       <c r="L739" s="18"/>
       <c r="M739" s="18"/>
@@ -7251,6 +8176,7 @@
     </row>
     <row r="740" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A740" s="3"/>
+      <c r="I740"/>
       <c r="K740" s="21"/>
       <c r="L740" s="18"/>
       <c r="M740" s="18"/>
@@ -7259,6 +8185,7 @@
     </row>
     <row r="741" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A741" s="3"/>
+      <c r="I741"/>
       <c r="K741" s="21"/>
       <c r="L741" s="18"/>
       <c r="M741" s="18"/>
@@ -7267,6 +8194,7 @@
     </row>
     <row r="742" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A742" s="3"/>
+      <c r="I742"/>
       <c r="K742" s="21"/>
       <c r="L742" s="18"/>
       <c r="M742" s="18"/>
@@ -7275,6 +8203,7 @@
     </row>
     <row r="743" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A743" s="3"/>
+      <c r="I743"/>
       <c r="K743" s="21"/>
       <c r="L743" s="18"/>
       <c r="M743" s="18"/>
@@ -7283,6 +8212,7 @@
     </row>
     <row r="744" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A744" s="3"/>
+      <c r="I744"/>
       <c r="K744" s="21"/>
       <c r="L744" s="18"/>
       <c r="M744" s="18"/>
@@ -7291,6 +8221,7 @@
     </row>
     <row r="745" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A745" s="3"/>
+      <c r="I745"/>
       <c r="K745" s="21"/>
       <c r="L745" s="18"/>
       <c r="M745" s="18"/>
@@ -7299,6 +8230,7 @@
     </row>
     <row r="746" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A746" s="3"/>
+      <c r="I746"/>
       <c r="K746" s="21"/>
       <c r="L746" s="18"/>
       <c r="M746" s="18"/>
@@ -7307,6 +8239,7 @@
     </row>
     <row r="747" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A747" s="3"/>
+      <c r="I747"/>
       <c r="K747" s="21"/>
       <c r="L747" s="18"/>
       <c r="M747" s="18"/>
@@ -7315,6 +8248,7 @@
     </row>
     <row r="748" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A748" s="3"/>
+      <c r="I748"/>
       <c r="K748" s="21"/>
       <c r="L748" s="18"/>
       <c r="M748" s="18"/>
@@ -7323,6 +8257,7 @@
     </row>
     <row r="749" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A749" s="3"/>
+      <c r="I749"/>
       <c r="K749" s="21"/>
       <c r="L749" s="18"/>
       <c r="M749" s="18"/>
@@ -7331,6 +8266,7 @@
     </row>
     <row r="750" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A750" s="3"/>
+      <c r="I750"/>
       <c r="K750" s="21"/>
       <c r="L750" s="18"/>
       <c r="M750" s="18"/>
@@ -7339,22 +8275,13 @@
     </row>
     <row r="751" spans="1:19" s="7" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A751" s="6"/>
+      <c r="I751"/>
       <c r="K751" s="24"/>
       <c r="N751" s="13"/>
       <c r="S751" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N1:XFD1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="B17:E17"/>
@@ -7370,6 +8297,16 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D7:XFD7"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="N1:XFD1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6 D20:D21 D24:D1048576">
     <cfRule type="dataBar" priority="7">
@@ -7397,7 +8334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I6 G20:G1048576 G9:G17">
+  <conditionalFormatting sqref="G20:G1048576 I6 G9:G17">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -7423,7 +8360,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I6 I20:I1048576 I9:I17">
+  <conditionalFormatting sqref="I6">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
